--- a/documents/株予測システム.xlsx
+++ b/documents/株予測システム.xlsx
@@ -8,22 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ume\git\kabukayosoku\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0722BCA-059C-4B32-BC2E-9E305828B83A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA0C0E6-8E37-4C41-B2C0-9DCCFDD66C0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRUD図" sheetId="1" r:id="rId1"/>
     <sheet name="DBレイアウト" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="11" r:id="rId4"/>
-    <sheet name="DDL" sheetId="9" r:id="rId5"/>
-    <sheet name="DD" sheetId="7" r:id="rId6"/>
-    <sheet name="フォルダ構成" sheetId="5" r:id="rId7"/>
-    <sheet name="区分" sheetId="6" r:id="rId8"/>
+    <sheet name="DDL" sheetId="9" r:id="rId3"/>
+    <sheet name="DD" sheetId="7" r:id="rId4"/>
+    <sheet name="フォルダ構成" sheetId="5" r:id="rId5"/>
+    <sheet name="区分" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">DD!$B$2:$I$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">DD!$B$2:$I$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -228,7 +226,7 @@
     <author>井上雄太</author>
   </authors>
   <commentList>
-    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{49D9C197-056E-4D7D-B7E3-B6DD8E2574CE}">
+    <comment ref="C25" authorId="0" shapeId="0" xr:uid="{49D9C197-056E-4D7D-B7E3-B6DD8E2574CE}">
       <text>
         <r>
           <rPr>
@@ -258,7 +256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C30" authorId="0" shapeId="0" xr:uid="{95C965C9-2BDA-499F-8CD2-020EDE3E0A79}">
+    <comment ref="C33" authorId="0" shapeId="0" xr:uid="{95C965C9-2BDA-499F-8CD2-020EDE3E0A79}">
       <text>
         <r>
           <rPr>
@@ -288,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C31" authorId="0" shapeId="0" xr:uid="{64CC3BE6-0F7D-4231-B038-B1596148FB2A}">
+    <comment ref="C34" authorId="0" shapeId="0" xr:uid="{64CC3BE6-0F7D-4231-B038-B1596148FB2A}">
       <text>
         <r>
           <rPr>
@@ -314,7 +312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{91C35294-0CA3-4B55-BDCB-B2E42C56BE9A}">
+    <comment ref="C35" authorId="0" shapeId="0" xr:uid="{91C35294-0CA3-4B55-BDCB-B2E42C56BE9A}">
       <text>
         <r>
           <rPr>
@@ -340,7 +338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C36" authorId="0" shapeId="0" xr:uid="{F5407019-EE26-43BA-A0F9-EAD570CE1A12}">
+    <comment ref="C39" authorId="0" shapeId="0" xr:uid="{F5407019-EE26-43BA-A0F9-EAD570CE1A12}">
       <text>
         <r>
           <rPr>
@@ -395,7 +393,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="230">
   <si>
     <t>銘柄マスタ</t>
     <rPh sb="0" eb="2">
@@ -1068,16 +1066,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>品詞区分</t>
-    <rPh sb="0" eb="2">
-      <t>ヒンシ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>クブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>【銘柄単位つぶやき集計処理】</t>
     <rPh sb="1" eb="3">
       <t>メイガラ</t>
@@ -1268,13 +1256,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>対象</t>
-    <rPh sb="0" eb="2">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>STOP取引区分</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1601,10 +1582,6 @@
   </si>
   <si>
     <t>happyouymd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hinsikbn</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1733,10 +1710,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>t_kabuka</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タイトル</t>
   </si>
   <si>
@@ -1790,271 +1763,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>{'statuses': [</t>
-  </si>
-  <si>
-    <t>{'hashtags': [</t>
-  </si>
-  <si>
-    <t>{'text': 'トヨタ', 'indices': [137, 141]}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">, </t>
-  </si>
-  <si>
-    <t>{'text': 'toyota', 'indices': [142, 149]}</t>
-  </si>
-  <si>
-    <t>{'text': 'かけがえのない一日', 'indices': [150, 160]}</t>
-  </si>
-  <si>
-    <t>], 'symbols': [], 'user_mentions': [], 'urls': [</t>
-  </si>
-  <si>
-    <t>{'url': 'https://t.co/UAJzb1Np4c', 'expanded_url': 'https://toyotatimes.jp/oneandonly/', 'display_url': 'toyotatimes.jp/oneandonly/', 'indices': [113, 136]}</t>
-  </si>
-  <si>
-    <t>], 'media': [</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'id': 1287042396245508098, 'id_str': '1287042396245508098', 'indices': [161, 184], 'media_url': 'http://pbs.twimg.com/media/Edx-PYcUwAI3mb0.jpg', 'media_url_https': 'https://pbs.twimg.com/media/Edx-PYcUwAI3mb0.jpg', 'url': 'https://t.co/0fyEXKrikn', 'display_url': 'pic.twitter.com/0fyEXKrikn', 'expanded_url': 'https://twitter.com/TOYOTA_PR/status/1287190906085339136/photo/1', 'type': 'photo', 'sizes': </t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'thumb': </t>
-  </si>
-  <si>
-    <t>{'w': 150, 'h': 150, 'resize': 'crop'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">, 'medium': </t>
-  </si>
-  <si>
-    <t>{'w': 1080, 'h': 1080, 'resize': 'fit'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">, 'large': </t>
-  </si>
-  <si>
-    <t xml:space="preserve">, 'small': </t>
-  </si>
-  <si>
-    <t>{'w': 680, 'h': 680, 'resize': 'fit'}</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>]}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">, 'extended_entities': </t>
-  </si>
-  <si>
-    <t>{'media': [</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'id': 1287042396228706306, 'id_str': '1287042396228706306', 'indices': [161, 184], 'media_url': 'http://pbs.twimg.com/media/Edx-PYYUYAImzUn.jpg', 'media_url_https': 'https://pbs.twimg.com/media/Edx-PYYUYAImzUn.jpg', 'url': 'https://t.co/0fyEXKrikn', 'display_url': 'pic.twitter.com/0fyEXKrikn', 'expanded_url': 'https://twitter.com/TOYOTA_PR/status/1287190906085339136/photo/1', 'type': 'photo', 'sizes': </t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'small': </t>
-  </si>
-  <si>
-    <t>{'w': 680, 'h': 679, 'resize': 'fit'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">, 'thumb': </t>
-  </si>
-  <si>
-    <t>{'w': 1081, 'h': 1080, 'resize': 'fit'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'id': 1287042397361205248, 'id_str': '1287042397361205248', 'indices': [161, 184], 'media_url': 'http://pbs.twimg.com/media/Edx-PcmU8AAEFvq.jpg', 'media_url_https': 'https://pbs.twimg.com/media/Edx-PcmU8AAEFvq.jpg', 'url': 'https://t.co/0fyEXKrikn', 'display_url': 'pic.twitter.com/0fyEXKrikn', 'expanded_url': 'https://twitter.com/TOYOTA_PR/status/1287190906085339136/photo/1', 'type': 'photo', 'sizes': </t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'id': 1287042396237119489, 'id_str': '1287042396237119489', 'indices': [161, 184], 'media_url': 'http://pbs.twimg.com/media/Edx-PYaUwAEl_ZT.jpg', 'media_url_https': 'https://pbs.twimg.com/media/Edx-PYaUwAEl_ZT.jpg', 'url': 'https://t.co/0fyEXKrikn', 'display_url': 'pic.twitter.com/0fyEXKrikn', 'expanded_url': 'https://twitter.com/TOYOTA_PR/status/1287190906085339136/photo/1', 'type': 'photo', 'sizes': </t>
-  </si>
-  <si>
-    <t xml:space="preserve">, 'metadata': </t>
-  </si>
-  <si>
-    <t>{'result_type': 'popular', 'iso_language_code': 'ja'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">, 'source': '&lt;a href="http://www.uniquevision.co.jp" rel="nofollow"&gt;Beluga_Production&lt;/a&gt;', 'in_reply_to_status_id': None, 'in_reply_to_status_id_str': None, 'in_reply_to_user_id': None, 'in_reply_to_user_id_str': None, 'in_reply_to_screen_name': None, 'user': </t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'id': 270726905, 'id_str': '270726905', 'name': 'トヨタ自動車株式会社', 'screen_name': 'TOYOTA_PR', 'location': '愛知県豊田市トヨタ町', 'description': 'トヨタ自動車株式会社の公式アカウントです。トヨタに関する様々なニュースや話題などをお届けします。なお企業活動や商品に関するご質問・お問合せは、お客様相談センターまでお願い致します。https://t.co/CG6efMILHD', 'url': 'https://t.co/wFWnG971Ip', 'entities': </t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'url': </t>
-  </si>
-  <si>
-    <t>{'urls': [</t>
-  </si>
-  <si>
-    <t>{'url': 'https://t.co/wFWnG971Ip', 'expanded_url': 'http://newsroom.toyota.co.jp', 'display_url': 'newsroom.toyota.co.jp', 'indices': [0, 23]}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">, 'description': </t>
-  </si>
-  <si>
-    <t>{'url': 'https://t.co/CG6efMILHD', 'expanded_url': 'http://faq.toyota.jp/', 'display_url': 'faq.toyota.jp', 'indices': [90, 113]}</t>
-  </si>
-  <si>
-    <t>, 'protected': False, 'followers_count': 265049, 'friends_count': 103, 'listed_count': 2187, 'created_at': 'Wed Mar 23 04:18:39 +0000 2011', 'favourites_count': 1128, 'utc_offset': None, 'time_zone': None, 'geo_enabled': False, 'verified': True, 'statuses_count': 13623, 'lang': None, 'contributors_enabled': False, 'is_translator': False, 'is_translation_enabled': False, 'profile_background_color': 'C0DEED', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_tile': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1044609780562591744/utBC15IO_normal.jpg', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1044609780562591744/utBC15IO_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/270726905/1592370118', 'profile_link_color': '0084B4', 'profile_sidebar_border_color': 'FFFFFF', 'profile_sidebar_fill_color': 'DDEEF6', 'profile_text_color': '333333', 'profile_use_background_image': True, 'has_extended_profile': False, 'default_profile': False, 'default_profile_image': False, 'following': False, 'follow_request_sent': False, 'notifications': False, 'translator_type': 'none'}</t>
-  </si>
-  <si>
-    <t>, 'geo': None, 'coordinates': None, 'place': None, 'contributors': None, 'is_quote_status': False, 'retweet_count': 190, 'favorite_count': 599, 'favorited': False, 'retweeted': False, 'possibly_sensitive': False, 'lang': 'ja'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'created_at': 'Sat Jul 25 08:05:58 +0000 2020', 'id': 1286935713515057152, 'id_str': '1286935713515057152', 'full_text': '毎年恒例の #チーム８ のイベント「8月8日はエイトの日」を今年も開催することが決定しました🐝\n\n今年のタイトルは\n「離れていても ８月８日はエイトの日2020」\n\n＜昼の部＞＜夜の部＞の2部構成で、AKB48劇場から配信で全国の皆様にお届けします💕\n\n詳細はこちら\n📲https://t.co/3EGGmnvQCU https://t.co/vK5tBNck5h', 'truncated': False, 'display_text_range': [0, 158], 'entities': </t>
-  </si>
-  <si>
-    <t>{'text': 'チーム８', 'indices': [6, 11]}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://t.co/3EGGmnvQCU', 'expanded_url': 'https://toyota-team8.jp/news/list/20200725-261655076864135.php', 'display_url': 'toyota-team8.jp/news/list/2020…', 'indices': [135, 158]}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'id': 1286935153697107970, 'id_str': '1286935153697107970', 'indices': [159, 182], 'media_url': 'http://pbs.twimg.com/media/EdwctC0UMAIeGTF.jpg', 'media_url_https': 'https://pbs.twimg.com/media/EdwctC0UMAIeGTF.jpg', 'url': 'https://t.co/vK5tBNck5h', 'display_url': 'pic.twitter.com/vK5tBNck5h', 'expanded_url': 'https://twitter.com/AKB48_staff/status/1286935713515057152/photo/1', 'type': 'photo', 'sizes': </t>
-  </si>
-  <si>
-    <t>{'w': 680, 'h': 481, 'resize': 'fit'}</t>
-  </si>
-  <si>
-    <t>{'w': 900, 'h': 636, 'resize': 'fit'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">, 'source': '&lt;a href="https://mobile.twitter.com" rel="nofollow"&gt;Twitter Web App&lt;/a&gt;', 'in_reply_to_status_id': None, 'in_reply_to_status_id_str': None, 'in_reply_to_user_id': None, 'in_reply_to_user_id_str': None, 'in_reply_to_screen_name': None, 'user': </t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'id': 871572161642639361, 'id_str': '871572161642639361', 'name': 'AKB48 #離れていても ダウンロード・サブスク配信中', 'screen_name': 'AKB48_staff', 'location': '東京 千代田区', 'description': 'AKB48グループに関するお知らせYouTube→https://t.co/OHHjKC37mI LIVEch→https://t.co/0zC5u5hRsC Instagram→https://t.co/HOuTpEVTz8', 'url': 'https://t.co/g5FUfNihw6', 'entities': </t>
-  </si>
-  <si>
-    <t>{'url': 'https://t.co/g5FUfNihw6', 'expanded_url': 'https://www.akb48.co.jp/', 'display_url': 'akb48.co.jp', 'indices': [0, 23]}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://t.co/OHHjKC37mI', 'expanded_url': 'http://youtube.com/AKB48', 'display_url': 'youtube.com/AKB48', 'indices': [25, 48]}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://t.co/0zC5u5hRsC', 'expanded_url': 'http://youtube.com/channel/UCfmrcEdes7yDtEISGPM1T-A', 'display_url': 'youtube.com/channel/UCfmrc…', 'indices': [56, 79]}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://t.co/HOuTpEVTz8', 'expanded_url': 'http://Instagram.com/akb48', 'display_url': 'Instagram.com/akb48', 'indices': [90, 113]}</t>
-  </si>
-  <si>
-    <t>, 'protected': False, 'followers_count': 75121, 'friends_count': 439, 'listed_count': 632, 'created_at': 'Mon Jun 05 03:39:31 +0000 2017', 'favourites_count': 117, 'utc_offset': None, 'time_zone': None, 'geo_enabled': True, 'verified': True, 'statuses_count': 14145, 'lang': None, 'contributors_enabled': False, 'is_translator': False, 'is_translation_enabled': False, 'profile_background_color': 'F5F8FA', 'profile_background_image_url': None, 'profile_background_image_url_https': None, 'profile_background_tile': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1267295587440848896/ttzoE_Xu_normal.jpg', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1267295587440848896/ttzoE_Xu_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/871572161642639361/1583381911', 'profile_link_color': '1DA1F2', 'profile_sidebar_border_color': 'C0DEED', 'profile_sidebar_fill_color': 'DDEEF6', 'profile_text_color': '333333', 'profile_use_background_image': True, 'has_extended_profile': True, 'default_profile': True, 'default_profile_image': False, 'following': False, 'follow_request_sent': False, 'notifications': False, 'translator_type': 'none'}</t>
-  </si>
-  <si>
-    <t>, 'geo': None, 'coordinates': None, 'place': None, 'contributors': None, 'is_quote_status': False, 'retweet_count': 388, 'favorite_count': 1361, 'favorited': False, 'retweeted': False, 'possibly_sensitive': False, 'lang': 'ja'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'created_at': 'Fri Jul 24 13:00:01 +0000 2020', 'id': 1286647326224707584, 'id_str': '1286647326224707584', 'full_text': '＼今日の #TGRgram をご紹介✨／\n\nTOYOTA GAZOO Racing 公式インスタグラム\n👉https://t.co/wHza066S4c\n\u3000\nC-HR GR SPORT &amp;amp; C-HR(#Nürburgring 24h)\n\n#CHRGRSPORT #CHR #24hNBR\n#MasahikoKageyama\n#KumiSato\n#TomoyukiKatayama\n#HerwigDaenens\n\n#nring #24hnurburgring #motorsportphotography https://t.co/0Zyo3K3UDn', 'truncated': False, 'display_text_range': [0, 255], 'entities': </t>
-  </si>
-  <si>
-    <t>{'text': 'TGRgram', 'indices': [5, 13]}</t>
-  </si>
-  <si>
-    <t>{'text': 'Nürburgring', 'indices': [104, 116]}</t>
-  </si>
-  <si>
-    <t>{'text': 'CHRGRSPORT', 'indices': [123, 134]}</t>
-  </si>
-  <si>
-    <t>{'text': 'CHR', 'indices': [135, 139]}</t>
-  </si>
-  <si>
-    <t>{'text': '24hNBR', 'indices': [140, 147]}</t>
-  </si>
-  <si>
-    <t>{'text': 'MasahikoKageyama', 'indices': [148, 165]}</t>
-  </si>
-  <si>
-    <t>{'text': 'KumiSato', 'indices': [166, 175]}</t>
-  </si>
-  <si>
-    <t>{'text': 'TomoyukiKatayama', 'indices': [176, 193]}</t>
-  </si>
-  <si>
-    <t>{'text': 'HerwigDaenens', 'indices': [194, 208]}</t>
-  </si>
-  <si>
-    <t>{'text': 'nring', 'indices': [210, 216]}</t>
-  </si>
-  <si>
-    <t>{'text': '24hnurburgring', 'indices': [217, 232]}</t>
-  </si>
-  <si>
-    <t>{'text': 'motorsportphotography', 'indices': [233, 255]}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://t.co/wHza066S4c', 'expanded_url': 'https://instagram.com/toyota_gazoo_racing/', 'display_url': 'instagram.com/toyota_gazoo_r…', 'indices': [53, 76]}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'id': 1286625499981033473, 'id_str': '1286625499981033473', 'indices': [256, 279], 'media_url': 'http://pbs.twimg.com/media/EdsDE01UMAE_aGZ.jpg', 'media_url_https': 'https://pbs.twimg.com/media/EdsDE01UMAE_aGZ.jpg', 'url': 'https://t.co/0Zyo3K3UDn', 'display_url': 'pic.twitter.com/0Zyo3K3UDn', 'expanded_url': 'https://twitter.com/TOYOTA_GR/status/1286647326224707584/photo/1', 'type': 'photo', 'sizes': </t>
-  </si>
-  <si>
-    <t>{'w': 1200, 'h': 600, 'resize': 'fit'}</t>
-  </si>
-  <si>
-    <t>{'w': 680, 'h': 340, 'resize': 'fit'}</t>
-  </si>
-  <si>
-    <t>{'w': 2048, 'h': 1024, 'resize': 'fit'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'id': 1286625499989438464, 'id_str': '1286625499989438464', 'indices': [256, 279], 'media_url': 'http://pbs.twimg.com/media/EdsDE03UcAAl413.jpg', 'media_url_https': 'https://pbs.twimg.com/media/EdsDE03UcAAl413.jpg', 'url': 'https://t.co/0Zyo3K3UDn', 'display_url': 'pic.twitter.com/0Zyo3K3UDn', 'expanded_url': 'https://twitter.com/TOYOTA_GR/status/1286647326224707584/photo/1', 'type': 'photo', 'sizes': </t>
-  </si>
-  <si>
-    <t>{'w': 1080, 'h': 540, 'resize': 'fit'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'id': 3261200112, 'id_str': '3261200112', 'name': 'TOYOTA GAZOO Racing', 'screen_name': 'TOYOTA_GR', 'location': '', 'description': 'Official Twitter account of TOYOTA GAZOO Racing\n\nトヨタ自動車のTOYOTA GAZOO Racing公式Twitterです。', 'url': 'https://t.co/CfAAlPfQfV', 'entities': </t>
-  </si>
-  <si>
-    <t>{'url': 'https://t.co/CfAAlPfQfV', 'expanded_url': 'http://toyotagazooracing.com/', 'display_url': 'toyotagazooracing.com', 'indices': [0, 23]}</t>
-  </si>
-  <si>
-    <t>{'urls': []}</t>
-  </si>
-  <si>
-    <t>, 'protected': False, 'followers_count': 253823, 'friends_count': 234, 'listed_count': 1188, 'created_at': 'Tue Jun 30 11:54:26 +0000 2015', 'favourites_count': 6361, 'utc_offset': None, 'time_zone': None, 'geo_enabled': True, 'verified': True, 'statuses_count': 9771, 'lang': None, 'contributors_enabled': False, 'is_translator': False, 'is_translation_enabled': False, 'profile_background_color': 'C0DEED', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_tile': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1093026508208099329/-VYMJ7Mi_normal.jpg', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1093026508208099329/-VYMJ7Mi_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/3261200112/1588083958', 'profile_link_color': '1DA1F2', 'profile_sidebar_border_color': 'C0DEED', 'profile_sidebar_fill_color': 'DDEEF6', 'profile_text_color': '333333', 'profile_use_background_image': True, 'has_extended_profile': False, 'default_profile': True, 'default_profile_image': False, 'following': False, 'follow_request_sent': False, 'notifications': False, 'translator_type': 'none'}</t>
-  </si>
-  <si>
-    <t>, 'geo': None, 'coordinates': None, 'place': None, 'contributors': None, 'is_quote_status': False, 'retweet_count': 81, 'favorite_count': 551, 'favorited': False, 'retweeted': False, 'possibly_sensitive': False, 'lang': 'ja'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">], 'search_metadata': </t>
-  </si>
-  <si>
-    <t>{'completed_in': 0.02, 'max_id': 0, 'max_id_str': '0', 'next_results': '?max_id=1286647326224707583&amp;q=TOYOTA&amp;lang=ja&amp;count=3&amp;include_entities=1&amp;result_type=popular', 'query': 'TOYOTA', 'count': 3, 'since_id': 0, 'since_id_str': '0'}</t>
-  </si>
-  <si>
-    <r>
-      <t>{'created_at': 'Sun Jul 26 01:00:01 +0000 2020', 'id': 1287190906085339136, 'id_str': '1287190906085339136', 'full_text': '今日もトヨタのお店には、\n町の幸せを考える人がいます。\n\n時代が変わっても、\n変わらずに持ち続ける「お客様第一」の想い。\n\nお客様に喜んでいただきたい、という一人のスタッフの深い想いが紡いだ実話をご紹介します。\n\n詳しくは</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>👇</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">\nhttps://t.co/UAJzb1Np4c\n#トヨタ #toyota #かけがえのない一日 https://t.co/0fyEXKrikn', 'truncated': False, 'display_text_range': [0, 160], 'entities': </t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザーID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2072,6 +1780,135 @@
   </si>
   <si>
     <t>tubuyakiurl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象（昼間取引）</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象（夜間取引）</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヤカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品詞区分１</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品詞区分２</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品詞区分３</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品詞区分４</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hinsikbn_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hinsikbn_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hinsikbn_3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hinsikbn_4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新回数</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update_cnt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新回数</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>影響無視フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ムシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eikyou_musi_flg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>影響無視フラグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>影響無視フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ムシ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2079,7 +1916,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2147,19 +1984,6 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI Emoji"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2238,7 +2062,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" textRotation="255"/>
@@ -2267,9 +2091,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2565,10 +2388,10 @@
   <sheetData>
     <row r="2" spans="2:11" s="1" customFormat="1" ht="148.9" customHeight="1">
       <c r="B2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>0</v>
@@ -2592,7 +2415,7 @@
         <v>55</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="2:11">
@@ -2696,7 +2519,7 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>62</v>
@@ -2714,13 +2537,13 @@
         <v>66</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>67</v>
@@ -2736,7 +2559,7 @@
         <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
@@ -2744,7 +2567,7 @@
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -2766,9 +2589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{737B94AA-C204-4FA0-AA44-339F90B1A936}">
   <dimension ref="B2:S54"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
@@ -2796,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="2:19">
@@ -2821,27 +2642,27 @@
     </row>
     <row r="4" spans="2:19">
       <c r="C4" t="str">
-        <f>VLOOKUP(C3,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(C3,DD!$C$3:$I$203,4,FALSE)</f>
         <v>n_meigaraid</v>
       </c>
       <c r="D4" t="str">
-        <f>VLOOKUP(D3,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(D3,DD!$C$3:$I$203,4,FALSE)</f>
         <v>s_meigaraname</v>
       </c>
       <c r="E4" t="str">
-        <f>VLOOKUP(E3,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(E3,DD!$C$3:$I$203,4,FALSE)</f>
         <v>n_sijyou_kbn</v>
       </c>
       <c r="F4" t="str">
-        <f>VLOOKUP(F3,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(F3,DD!$C$3:$I$203,4,FALSE)</f>
         <v>n_gyousyu_bunrui_kbn</v>
       </c>
       <c r="G4" t="str">
-        <f>VLOOKUP(G3,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(G3,DD!$C$3:$I$203,4,FALSE)</f>
         <v>n_tangen_kabusuu</v>
       </c>
       <c r="H4" t="str">
-        <f>VLOOKUP(H3,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(H3,DD!$C$3:$I$203,4,FALSE)</f>
         <v>n_nikkei_saiyou_flg</v>
       </c>
     </row>
@@ -2870,7 +2691,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="2:19">
@@ -2899,10 +2720,10 @@
         <v>14</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M10" t="s">
         <v>22</v>
@@ -2922,77 +2743,77 @@
       <c r="R10" t="s">
         <v>21</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S10" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:19">
       <c r="C11" t="str">
-        <f>VLOOKUP(C10,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(C10,DD!$C$3:$I$203,4,FALSE)</f>
         <v>n_meigaraid</v>
       </c>
       <c r="D11" t="str">
-        <f>VLOOKUP(D10,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(D10,DD!$C$3:$I$203,4,FALSE)</f>
         <v>s_dataymd</v>
       </c>
       <c r="E11" t="str">
-        <f>VLOOKUP(E10,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(E10,DD!$C$3:$I$203,4,FALSE)</f>
         <v>n_pts_kbn</v>
       </c>
       <c r="F11" t="str">
-        <f>VLOOKUP(F10,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(F10,DD!$C$3:$I$203,4,FALSE)</f>
         <v>d_hazimarine</v>
       </c>
       <c r="G11" t="str">
-        <f>VLOOKUP(G10,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(G10,DD!$C$3:$I$203,4,FALSE)</f>
         <v>d_takane</v>
       </c>
       <c r="H11" t="str">
-        <f>VLOOKUP(H10,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(H10,DD!$C$3:$I$203,4,FALSE)</f>
         <v>d_yasune</v>
       </c>
       <c r="I11" t="str">
-        <f>VLOOKUP(I10,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(I10,DD!$C$3:$I$203,4,FALSE)</f>
         <v>d_owarine</v>
       </c>
       <c r="J11" t="str">
-        <f>VLOOKUP(J10,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(J10,DD!$C$3:$I$203,4,FALSE)</f>
         <v>n_dekitakasuu</v>
       </c>
       <c r="K11" s="7" t="str">
-        <f>VLOOKUP(K10,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(K10,DD!$C$3:$I$203,4,FALSE)</f>
         <v>n_yauzyou_cnt</v>
       </c>
       <c r="L11" s="7" t="str">
-        <f>VLOOKUP(L10,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(L10,DD!$C$3:$I$203,4,FALSE)</f>
         <v>d_jikasougaku</v>
       </c>
       <c r="M11" t="str">
-        <f>VLOOKUP(M10,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(M10,DD!$C$3:$I$203,4,FALSE)</f>
         <v>d_owarine_before_zoukaritu</v>
       </c>
       <c r="N11" t="str">
-        <f>VLOOKUP(N10,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(N10,DD!$C$3:$I$203,4,FALSE)</f>
         <v>d_owarine_before_zoukagk</v>
       </c>
       <c r="O11" t="str">
-        <f>VLOOKUP(O10,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(O10,DD!$C$3:$I$203,4,FALSE)</f>
         <v>n_neugokikbn</v>
       </c>
       <c r="P11" t="str">
-        <f>VLOOKUP(P10,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(P10,DD!$C$3:$I$203,4,FALSE)</f>
         <v>n_stop_torihiki_kbn</v>
       </c>
       <c r="Q11" t="str">
-        <f>VLOOKUP(Q10,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(Q10,DD!$C$3:$I$203,4,FALSE)</f>
         <v>d_pts_owarine_zoukaritu</v>
       </c>
       <c r="R11" t="str">
-        <f>VLOOKUP(R10,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(R10,DD!$C$3:$I$203,4,FALSE)</f>
         <v>d_pts_owarine_zoukagk</v>
       </c>
-      <c r="S11" t="str">
-        <f>VLOOKUP(S10,DD!$C$3:$I$200,4,FALSE)</f>
+      <c r="S11" s="5" t="str">
+        <f>VLOOKUP(S10,DD!$C$3:$I$203,4,FALSE)</f>
         <v>n_pts_neugokikbn</v>
       </c>
     </row>
@@ -3045,7 +2866,7 @@
       <c r="R12" t="s">
         <v>15</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S12" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3054,7 +2875,7 @@
         <v>34</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="2:13">
@@ -3079,27 +2900,27 @@
     </row>
     <row r="18" spans="2:13">
       <c r="C18" t="str">
-        <f>VLOOKUP(C17,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(C17,DD!$C$3:$I$203,4,FALSE)</f>
         <v>n_meigaraid</v>
       </c>
       <c r="D18" t="str">
-        <f>VLOOKUP(D17,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(D17,DD!$C$3:$I$203,4,FALSE)</f>
         <v>s_happyouymd</v>
       </c>
       <c r="E18" t="str">
-        <f>VLOOKUP(E17,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(E17,DD!$C$3:$I$203,4,FALSE)</f>
         <v>n_renban</v>
       </c>
       <c r="F18" t="str">
-        <f>VLOOKUP(F17,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(F17,DD!$C$3:$I$203,4,FALSE)</f>
         <v>n_data_syutokumoto_kbn</v>
       </c>
       <c r="G18" t="str">
-        <f>VLOOKUP(G17,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(G17,DD!$C$3:$I$203,4,FALSE)</f>
         <v>s_title</v>
       </c>
       <c r="H18" t="str">
-        <f>VLOOKUP(H17,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(H17,DD!$C$3:$I$203,4,FALSE)</f>
         <v>s_kijinaiyou</v>
       </c>
     </row>
@@ -3128,12 +2949,12 @@
         <v>29</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="2:13">
       <c r="C24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D24" t="s">
         <v>37</v>
@@ -3148,13 +2969,13 @@
         <v>33</v>
       </c>
       <c r="H24" t="s">
-        <v>294</v>
+        <v>209</v>
       </c>
       <c r="I24" t="s">
         <v>41</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K24" t="s">
         <v>42</v>
@@ -3168,47 +2989,47 @@
     </row>
     <row r="25" spans="2:13">
       <c r="C25" t="str">
-        <f>VLOOKUP(C24,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(C24,DD!$C$3:$I$203,4,FALSE)</f>
         <v>n_tubuyaki_id</v>
       </c>
       <c r="D25" t="str">
-        <f>VLOOKUP(D24,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(D24,DD!$C$3:$I$203,4,FALSE)</f>
         <v>n_meigaraid</v>
       </c>
       <c r="E25" t="str">
-        <f>VLOOKUP(E24,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(E24,DD!$C$3:$I$203,4,FALSE)</f>
         <v>s_userid</v>
       </c>
       <c r="F25" t="str">
-        <f>VLOOKUP(F24,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(F24,DD!$C$3:$I$203,4,FALSE)</f>
         <v>s_tubuyaki_nitiji</v>
       </c>
       <c r="G25" t="str">
-        <f>VLOOKUP(G24,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(G24,DD!$C$3:$I$203,4,FALSE)</f>
         <v>s_tubuyaki</v>
       </c>
       <c r="H25" t="str">
-        <f>VLOOKUP(H24,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(H24,DD!$C$3:$I$203,4,FALSE)</f>
         <v>s_tubuyakiurl</v>
       </c>
       <c r="I25" t="str">
-        <f>VLOOKUP(I24,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(I24,DD!$C$3:$I$203,4,FALSE)</f>
         <v>n_followersuu</v>
       </c>
       <c r="J25" t="str">
-        <f>VLOOKUP(J24,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(J24,DD!$C$3:$I$203,4,FALSE)</f>
         <v>n_neugokikbn</v>
       </c>
       <c r="K25" t="str">
-        <f>VLOOKUP(K24,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(K24,DD!$C$3:$I$203,4,FALSE)</f>
         <v>d_one_neugoki_eikyousisuu</v>
       </c>
       <c r="L25" t="str">
-        <f>VLOOKUP(L24,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(L24,DD!$C$3:$I$203,4,FALSE)</f>
         <v>d_all_neugoki_eikyousisuu</v>
       </c>
       <c r="M25" t="str">
-        <f>VLOOKUP(M24,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(M24,DD!$C$3:$I$203,4,FALSE)</f>
         <v>n_kousin_jyoukyou_kbn</v>
       </c>
     </row>
@@ -3252,7 +3073,7 @@
         <v>47</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="2:13">
@@ -3262,64 +3083,114 @@
       <c r="D31" t="s">
         <v>35</v>
       </c>
-      <c r="E31" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="E31" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="I31" t="s">
         <v>40</v>
       </c>
-      <c r="G31" t="s">
+      <c r="J31" t="s">
         <v>46</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="2:13">
       <c r="C32" t="str">
-        <f>VLOOKUP(C31,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(C31,DD!$C$3:$I$203,4,FALSE)</f>
         <v>n_tango_id</v>
       </c>
       <c r="D32" t="str">
-        <f>VLOOKUP(D31,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(D31,DD!$C$3:$I$203,4,FALSE)</f>
         <v>s_tango</v>
       </c>
-      <c r="E32" t="str">
-        <f>VLOOKUP(E31,DD!$C$3:$I$200,4,FALSE)</f>
-        <v>n_hinsikbn</v>
-      </c>
-      <c r="F32" t="str">
-        <f>VLOOKUP(F31,DD!$C$3:$I$200,4,FALSE)</f>
+      <c r="E32" s="7" t="str">
+        <f>VLOOKUP(E31,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>s_hinsikbn_1</v>
+      </c>
+      <c r="F32" s="7" t="str">
+        <f>VLOOKUP(F31,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>s_hinsikbn_2</v>
+      </c>
+      <c r="G32" s="7" t="str">
+        <f>VLOOKUP(G31,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>s_hinsikbn_3</v>
+      </c>
+      <c r="H32" s="7" t="str">
+        <f>VLOOKUP(H31,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>s_hinsikbn_4</v>
+      </c>
+      <c r="I32" t="str">
+        <f>VLOOKUP(I31,DD!$C$3:$I$203,4,FALSE)</f>
         <v>d_eikyoudo_age</v>
       </c>
-      <c r="G32" t="str">
-        <f>VLOOKUP(G31,DD!$C$3:$I$200,4,FALSE)</f>
+      <c r="J32" t="str">
+        <f>VLOOKUP(J31,DD!$C$3:$I$203,4,FALSE)</f>
         <v>d_eikyoudo_sage</v>
       </c>
-    </row>
-    <row r="33" spans="2:8">
+      <c r="K32" s="7" t="str">
+        <f>VLOOKUP(K31,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>n_update_cnt</v>
+      </c>
+      <c r="L32" s="7" t="str">
+        <f>VLOOKUP(L31,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>n_eikyou_musi_flg</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12">
       <c r="C33" t="s">
         <v>5</v>
       </c>
       <c r="D33" t="s">
         <v>39</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" t="s">
         <v>15</v>
       </c>
-      <c r="G33" t="s">
+      <c r="J33" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="2:8">
+      <c r="K33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12">
       <c r="B37" t="s">
         <v>48</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12">
       <c r="C38" t="s">
         <v>38</v>
       </c>
@@ -3332,26 +3203,33 @@
       <c r="F38" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="39" spans="2:8">
+      <c r="G38" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12">
       <c r="C39" t="str">
-        <f>VLOOKUP(C38,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(C38,DD!$C$3:$I$203,4,FALSE)</f>
         <v>n_tango_id</v>
       </c>
       <c r="D39" t="str">
-        <f>VLOOKUP(D38,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(D38,DD!$C$3:$I$203,4,FALSE)</f>
         <v>s_rirekiymd</v>
       </c>
       <c r="E39" t="str">
-        <f>VLOOKUP(E38,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(E38,DD!$C$3:$I$203,4,FALSE)</f>
         <v>d_eikyoudo_age</v>
       </c>
       <c r="F39" t="str">
-        <f>VLOOKUP(F38,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(F38,DD!$C$3:$I$203,4,FALSE)</f>
         <v>d_eikyoudo_sage</v>
       </c>
-    </row>
-    <row r="40" spans="2:8">
+      <c r="G39" s="7" t="str">
+        <f>VLOOKUP(G38,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>n_update_cnt</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12">
       <c r="C40" t="s">
         <v>5</v>
       </c>
@@ -3364,16 +3242,19 @@
       <c r="F40" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="44" spans="2:8">
+      <c r="G40" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12">
       <c r="B44" t="s">
         <v>49</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12">
       <c r="C45" t="s">
         <v>37</v>
       </c>
@@ -3393,33 +3274,33 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:12">
       <c r="C46" t="str">
-        <f>VLOOKUP(C45,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(C45,DD!$C$3:$I$203,4,FALSE)</f>
         <v>n_meigaraid</v>
       </c>
       <c r="D46" t="str">
-        <f>VLOOKUP(D45,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(D45,DD!$C$3:$I$203,4,FALSE)</f>
         <v>s_dataymd</v>
       </c>
       <c r="E46" t="str">
-        <f>VLOOKUP(E45,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(E45,DD!$C$3:$I$203,4,FALSE)</f>
         <v>n_neugokikbn</v>
       </c>
       <c r="F46" t="str">
-        <f>VLOOKUP(F45,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(F45,DD!$C$3:$I$203,4,FALSE)</f>
         <v>d_one_neugoki_eikyousisuu_ruikei</v>
       </c>
       <c r="G46" t="str">
-        <f>VLOOKUP(G45,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(G45,DD!$C$3:$I$203,4,FALSE)</f>
         <v>d_all_neugoki_eikyousisuu_ruikei</v>
       </c>
       <c r="H46" t="str">
-        <f>VLOOKUP(H45,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(H45,DD!$C$3:$I$203,4,FALSE)</f>
         <v>d_bunseki_kekka_tekiseido</v>
       </c>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:12">
       <c r="C47" t="s">
         <v>5</v>
       </c>
@@ -3441,53 +3322,53 @@
     </row>
     <row r="49" spans="2:7">
       <c r="B49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="2:7">
       <c r="B51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="2:7">
       <c r="C52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" t="s">
         <v>86</v>
       </c>
-      <c r="D52" t="s">
-        <v>92</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>87</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>88</v>
-      </c>
-      <c r="G52" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="53" spans="2:7">
       <c r="C53" t="str">
-        <f>VLOOKUP(C52,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(C52,DD!$C$3:$I$203,4,FALSE)</f>
         <v>n_batch_kekka_dataid</v>
       </c>
       <c r="D53" t="str">
-        <f>VLOOKUP(D52,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(D52,DD!$C$3:$I$203,4,FALSE)</f>
         <v>s_syoriymd</v>
       </c>
       <c r="E53" t="str">
-        <f>VLOOKUP(E52,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(E52,DD!$C$3:$I$203,4,FALSE)</f>
         <v>s_kinou_id</v>
       </c>
       <c r="F53" t="str">
-        <f>VLOOKUP(F52,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(F52,DD!$C$3:$I$203,4,FALSE)</f>
         <v>n_syori_kekka_kbn</v>
       </c>
       <c r="G53" t="str">
-        <f>VLOOKUP(G52,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(G52,DD!$C$3:$I$203,4,FALSE)</f>
         <v>s_syori_comment</v>
       </c>
     </row>
@@ -3517,1161 +3398,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A107849B-8023-4EE1-B3CD-CE67B291482A}">
-  <dimension ref="B2:C224"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2589ED1-E227-4CD4-A66B-9AD9B395DEB9}">
+  <dimension ref="B1:G96"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" s="16" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" s="17" customFormat="1">
-      <c r="B3" s="17" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="C4" s="16" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="C5" s="16" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="C6" s="16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="C7" s="16" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="C8" s="16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="C9" s="16" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="16" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="16" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="16" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="16" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="16" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="16" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="16" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="16" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="16" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="16" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="16" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="16" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="16" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="16" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="16" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="16" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="16" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="16" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="16" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="16" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="16" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="16" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="16" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="16" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="16" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="16" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="16" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="16" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" s="16" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="16" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="16" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="16" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" s="16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83" s="16" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2">
-      <c r="B84" s="16" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2">
-      <c r="B85" s="16" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2">
-      <c r="B86" s="16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2">
-      <c r="B87" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2">
-      <c r="B88" s="16" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2">
-      <c r="B89" s="16" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2">
-      <c r="B90" s="16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" s="17" customFormat="1">
-      <c r="B91" s="17" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2">
-      <c r="B92" s="16" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2">
-      <c r="B93" s="16" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2">
-      <c r="B94" s="16" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2">
-      <c r="B95" s="16" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2">
-      <c r="B96" s="16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97" s="16" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98" s="16" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2">
-      <c r="B99" s="16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2">
-      <c r="B100" s="16" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2">
-      <c r="B101" s="16" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2">
-      <c r="B102" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2">
-      <c r="B103" s="16" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2">
-      <c r="B104" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2">
-      <c r="B105" s="16" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2">
-      <c r="B106" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2">
-      <c r="B107" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2">
-      <c r="B108" s="16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2">
-      <c r="B109" s="16" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2">
-      <c r="B110" s="16" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2">
-      <c r="B111" s="16" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2">
-      <c r="B112" s="16" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2">
-      <c r="B113" s="16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2">
-      <c r="B114" s="16" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2">
-      <c r="B115" s="16" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2">
-      <c r="B116" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2">
-      <c r="B117" s="16" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2">
-      <c r="B118" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2">
-      <c r="B119" s="16" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2">
-      <c r="B120" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2">
-      <c r="B121" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2">
-      <c r="B122" s="16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="123" spans="2:2">
-      <c r="B123" s="16" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2">
-      <c r="B124" s="16" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="125" spans="2:2">
-      <c r="B125" s="16" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="126" spans="2:2">
-      <c r="B126" s="16" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="127" spans="2:2">
-      <c r="B127" s="16" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2">
-      <c r="B128" s="16" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2">
-      <c r="B129" s="16" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2">
-      <c r="B130" s="16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2">
-      <c r="B131" s="16" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2">
-      <c r="B132" s="16" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2">
-      <c r="B133" s="16" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="134" spans="2:2">
-      <c r="B134" s="16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2">
-      <c r="B135" s="16" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="136" spans="2:2">
-      <c r="B136" s="16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="137" spans="2:2">
-      <c r="B137" s="16" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="138" spans="2:2">
-      <c r="B138" s="16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2">
-      <c r="B139" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="140" spans="2:2">
-      <c r="B140" s="16" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="141" spans="2:2">
-      <c r="B141" s="16" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="142" spans="2:2">
-      <c r="B142" s="16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="143" spans="2:2" s="17" customFormat="1">
-      <c r="B143" s="17" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="144" spans="2:2">
-      <c r="B144" s="16" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2">
-      <c r="B145" s="16" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2">
-      <c r="B146" s="16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="147" spans="2:2">
-      <c r="B147" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="148" spans="2:2">
-      <c r="B148" s="16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="149" spans="2:2">
-      <c r="B149" s="16" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="150" spans="2:2">
-      <c r="B150" s="16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="151" spans="2:2">
-      <c r="B151" s="16" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="152" spans="2:2">
-      <c r="B152" s="16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="153" spans="2:2">
-      <c r="B153" s="16" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="154" spans="2:2">
-      <c r="B154" s="16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="155" spans="2:2">
-      <c r="B155" s="16" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="156" spans="2:2">
-      <c r="B156" s="16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="157" spans="2:2">
-      <c r="B157" s="16" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="158" spans="2:2">
-      <c r="B158" s="16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="159" spans="2:2">
-      <c r="B159" s="16" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="160" spans="2:2">
-      <c r="B160" s="16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="161" spans="2:2">
-      <c r="B161" s="16" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="162" spans="2:2">
-      <c r="B162" s="16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="163" spans="2:2">
-      <c r="B163" s="16" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="164" spans="2:2">
-      <c r="B164" s="16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="165" spans="2:2">
-      <c r="B165" s="16" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="166" spans="2:2">
-      <c r="B166" s="16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="167" spans="2:2">
-      <c r="B167" s="16" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="168" spans="2:2">
-      <c r="B168" s="16" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="169" spans="2:2">
-      <c r="B169" s="16" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="170" spans="2:2">
-      <c r="B170" s="16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="171" spans="2:2">
-      <c r="B171" s="16" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="172" spans="2:2">
-      <c r="B172" s="16" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="173" spans="2:2">
-      <c r="B173" s="16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="174" spans="2:2">
-      <c r="B174" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="175" spans="2:2">
-      <c r="B175" s="16" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="176" spans="2:2">
-      <c r="B176" s="16" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="177" spans="2:2">
-      <c r="B177" s="16" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="178" spans="2:2">
-      <c r="B178" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="179" spans="2:2">
-      <c r="B179" s="16" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="180" spans="2:2">
-      <c r="B180" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="181" spans="2:2">
-      <c r="B181" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="182" spans="2:2">
-      <c r="B182" s="16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="183" spans="2:2">
-      <c r="B183" s="16" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="184" spans="2:2">
-      <c r="B184" s="16" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="185" spans="2:2">
-      <c r="B185" s="16" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="186" spans="2:2">
-      <c r="B186" s="16" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="187" spans="2:2">
-      <c r="B187" s="16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="188" spans="2:2">
-      <c r="B188" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="189" spans="2:2">
-      <c r="B189" s="16" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="190" spans="2:2">
-      <c r="B190" s="16" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="191" spans="2:2">
-      <c r="B191" s="16" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="192" spans="2:2">
-      <c r="B192" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="193" spans="2:2">
-      <c r="B193" s="16" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="194" spans="2:2">
-      <c r="B194" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="195" spans="2:2">
-      <c r="B195" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="196" spans="2:2">
-      <c r="B196" s="16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="197" spans="2:2">
-      <c r="B197" s="16" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="198" spans="2:2">
-      <c r="B198" s="16" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="199" spans="2:2">
-      <c r="B199" s="16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="200" spans="2:2">
-      <c r="B200" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="201" spans="2:2">
-      <c r="B201" s="16" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="202" spans="2:2">
-      <c r="B202" s="16" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="203" spans="2:2">
-      <c r="B203" s="16" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="204" spans="2:2">
-      <c r="B204" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="205" spans="2:2">
-      <c r="B205" s="16" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="206" spans="2:2">
-      <c r="B206" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="207" spans="2:2">
-      <c r="B207" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="208" spans="2:2">
-      <c r="B208" s="16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="209" spans="2:2">
-      <c r="B209" s="16" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="210" spans="2:2">
-      <c r="B210" s="16" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="211" spans="2:2">
-      <c r="B211" s="16" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="212" spans="2:2">
-      <c r="B212" s="16" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="213" spans="2:2">
-      <c r="B213" s="16" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="214" spans="2:2">
-      <c r="B214" s="16" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="215" spans="2:2">
-      <c r="B215" s="16" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="216" spans="2:2">
-      <c r="B216" s="16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="217" spans="2:2">
-      <c r="B217" s="16" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="218" spans="2:2">
-      <c r="B218" s="16" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="219" spans="2:2">
-      <c r="B219" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="220" spans="2:2">
-      <c r="B220" s="16" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="221" spans="2:2">
-      <c r="B221" s="16" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="222" spans="2:2">
-      <c r="B222" s="16" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="223" spans="2:2">
-      <c r="B223" s="16" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="224" spans="2:2">
-      <c r="B224" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B1045E-C80B-45E7-9FD0-8D677988408E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2589ED1-E227-4CD4-A66B-9AD9B395DEB9}">
-  <dimension ref="B1:G91"/>
-  <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -4683,12 +3414,12 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="E1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="2:7">
       <c r="B2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C2" s="14"/>
       <c r="E2" s="14" t="str">
@@ -4704,15 +3435,15 @@
         <v>37</v>
       </c>
       <c r="D4" t="str">
-        <f>VLOOKUP(C4,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(C4,DD!$C$3:$I$203,4,FALSE)</f>
         <v>n_meigaraid</v>
       </c>
       <c r="E4" t="str">
-        <f>VLOOKUP(C4,DD!$C$3:$I$200,5,FALSE)</f>
+        <f>VLOOKUP(C4,DD!$C$3:$I$203,5,FALSE)</f>
         <v xml:space="preserve">INTEGER </v>
       </c>
       <c r="F4">
-        <f>VLOOKUP(C4,DD!$C$3:$I$200,6,FALSE)</f>
+        <f>VLOOKUP(C4,DD!$C$3:$I$203,6,FALSE)</f>
         <v>4</v>
       </c>
       <c r="G4" t="str">
@@ -4725,15 +3456,15 @@
         <v>1</v>
       </c>
       <c r="D5" t="str">
-        <f>VLOOKUP(C5,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(C5,DD!$C$3:$I$203,4,FALSE)</f>
         <v>s_meigaraname</v>
       </c>
       <c r="E5" t="str">
-        <f>VLOOKUP(C5,DD!$C$3:$I$200,5,FALSE)</f>
+        <f>VLOOKUP(C5,DD!$C$3:$I$203,5,FALSE)</f>
         <v>varchar</v>
       </c>
       <c r="F5">
-        <f>VLOOKUP(C5,DD!$C$3:$I$200,6,FALSE)</f>
+        <f>VLOOKUP(C5,DD!$C$3:$I$203,6,FALSE)</f>
         <v>100</v>
       </c>
       <c r="G5" t="str">
@@ -4746,15 +3477,15 @@
         <v>2</v>
       </c>
       <c r="D6" t="str">
-        <f>VLOOKUP(C6,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(C6,DD!$C$3:$I$203,4,FALSE)</f>
         <v>n_sijyou_kbn</v>
       </c>
       <c r="E6" t="str">
-        <f>VLOOKUP(C6,DD!$C$3:$I$200,5,FALSE)</f>
+        <f>VLOOKUP(C6,DD!$C$3:$I$203,5,FALSE)</f>
         <v xml:space="preserve">INTEGER </v>
       </c>
       <c r="F6">
-        <f>VLOOKUP(C6,DD!$C$3:$I$200,6,FALSE)</f>
+        <f>VLOOKUP(C6,DD!$C$3:$I$203,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G6" t="str">
@@ -4767,15 +3498,15 @@
         <v>17</v>
       </c>
       <c r="D7" t="str">
-        <f>VLOOKUP(C7,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(C7,DD!$C$3:$I$203,4,FALSE)</f>
         <v>n_gyousyu_bunrui_kbn</v>
       </c>
       <c r="E7" t="str">
-        <f>VLOOKUP(C7,DD!$C$3:$I$200,5,FALSE)</f>
+        <f>VLOOKUP(C7,DD!$C$3:$I$203,5,FALSE)</f>
         <v xml:space="preserve">INTEGER </v>
       </c>
       <c r="F7">
-        <f>VLOOKUP(C7,DD!$C$3:$I$200,6,FALSE)</f>
+        <f>VLOOKUP(C7,DD!$C$3:$I$203,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G7" t="str">
@@ -4788,15 +3519,15 @@
         <v>3</v>
       </c>
       <c r="D8" t="str">
-        <f>VLOOKUP(C8,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(C8,DD!$C$3:$I$203,4,FALSE)</f>
         <v>n_tangen_kabusuu</v>
       </c>
       <c r="E8" t="str">
-        <f>VLOOKUP(C8,DD!$C$3:$I$200,5,FALSE)</f>
+        <f>VLOOKUP(C8,DD!$C$3:$I$203,5,FALSE)</f>
         <v xml:space="preserve">INTEGER </v>
       </c>
       <c r="F8">
-        <f>VLOOKUP(C8,DD!$C$3:$I$200,6,FALSE)</f>
+        <f>VLOOKUP(C8,DD!$C$3:$I$203,6,FALSE)</f>
         <v>5</v>
       </c>
       <c r="G8" t="str">
@@ -4809,15 +3540,15 @@
         <v>4</v>
       </c>
       <c r="D9" t="str">
-        <f>VLOOKUP(C9,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(C9,DD!$C$3:$I$203,4,FALSE)</f>
         <v>n_nikkei_saiyou_flg</v>
       </c>
       <c r="E9" t="str">
-        <f>VLOOKUP(C9,DD!$C$3:$I$200,5,FALSE)</f>
+        <f>VLOOKUP(C9,DD!$C$3:$I$203,5,FALSE)</f>
         <v xml:space="preserve">INTEGER </v>
       </c>
       <c r="F9">
-        <f>VLOOKUP(C9,DD!$C$3:$I$200,6,FALSE)</f>
+        <f>VLOOKUP(C9,DD!$C$3:$I$203,6,FALSE)</f>
         <v>1</v>
       </c>
       <c r="G9" t="str">
@@ -4828,17 +3559,17 @@
     <row r="11" spans="2:7" s="15" customFormat="1"/>
     <row r="12" spans="2:7">
       <c r="B12" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="E12" s="14" t="str">
-        <f>"create table "&amp;B12&amp;"("&amp;_xlfn.CONCAT(G14:G30)&amp;" PRIMARY KEY("&amp;E13&amp;"));"</f>
-        <v>create table t_kabuka(n_meigaraid INTEGER (4), s_dataymd varchar(8), n_pts_kbn INTEGER (2), d_hazimarine double(10,3), d_takane double(10,3), d_yasune double(10,3), d_owarine double(10,3), n_dekitakasuu INTEGER (30), n_yauzyou_cnt INTEGER (10,3), d_jikasougaku double(30,3), d_owarine_before_zoukaritu double(10,3), d_owarine_before_zoukagk double(10,3), n_neugokikbn INTEGER (2), n_stop_torihiki_kbn INTEGER (2), d_pts_owarine_zoukaritu double(5,3), d_pts_owarine_zoukagk double(10,3), n_pts_neugokikbn INTEGER (2),  PRIMARY KEY(n_meigaraid, s_dataymd));</v>
+        <f>"create table "&amp;B12&amp;"("&amp;_xlfn.CONCAT(G14:G29)&amp;" PRIMARY KEY("&amp;E13&amp;"));"</f>
+        <v>create table t_kabuka(n_meigaraid INTEGER (4), s_dataymd varchar(8), n_pts_kbn INTEGER (2), d_hazimarine double(10,3), d_takane double(10,3), d_yasune double(10,3), d_owarine double(10,3), n_dekitakasuu INTEGER (30), n_yauzyou_cnt INTEGER (10,3), d_jikasougaku double(30,3), d_owarine_before_zoukaritu double(10,3), d_owarine_before_zoukagk double(10,3), n_neugokikbn INTEGER (2), n_stop_torihiki_kbn INTEGER (2), d_pts_owarine_zoukaritu double(5,3), d_pts_owarine_zoukagk double(10,3),  PRIMARY KEY(n_meigaraid, s_dataymd, n_pts_kbn));</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="E13" s="14" t="str">
-        <f>D14&amp;", "&amp;D15</f>
-        <v>n_meigaraid, s_dataymd</v>
+        <f>D14&amp;", "&amp;D15&amp;", "&amp;D16</f>
+        <v>n_meigaraid, s_dataymd, n_pts_kbn</v>
       </c>
     </row>
     <row r="14" spans="2:7">
@@ -4846,15 +3577,15 @@
         <v>37</v>
       </c>
       <c r="D14" t="str">
-        <f>VLOOKUP(C14,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(C14,DD!$C$3:$I$203,4,FALSE)</f>
         <v>n_meigaraid</v>
       </c>
       <c r="E14" t="str">
-        <f>VLOOKUP(C14,DD!$C$3:$I$200,5,FALSE)</f>
+        <f>VLOOKUP(C14,DD!$C$3:$I$203,5,FALSE)</f>
         <v xml:space="preserve">INTEGER </v>
       </c>
       <c r="F14">
-        <f>VLOOKUP(C14,DD!$C$3:$I$200,6,FALSE)</f>
+        <f>VLOOKUP(C14,DD!$C$3:$I$203,6,FALSE)</f>
         <v>4</v>
       </c>
       <c r="G14" t="str">
@@ -4867,15 +3598,15 @@
         <v>9</v>
       </c>
       <c r="D15" t="str">
-        <f>VLOOKUP(C15,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(C15,DD!$C$3:$I$203,4,FALSE)</f>
         <v>s_dataymd</v>
       </c>
       <c r="E15" t="str">
-        <f>VLOOKUP(C15,DD!$C$3:$I$200,5,FALSE)</f>
+        <f>VLOOKUP(C15,DD!$C$3:$I$203,5,FALSE)</f>
         <v>varchar</v>
       </c>
       <c r="F15">
-        <f>VLOOKUP(C15,DD!$C$3:$I$200,6,FALSE)</f>
+        <f>VLOOKUP(C15,DD!$C$3:$I$203,6,FALSE)</f>
         <v>8</v>
       </c>
       <c r="G15" t="str">
@@ -4888,15 +3619,15 @@
         <v>18</v>
       </c>
       <c r="D16" t="str">
-        <f>VLOOKUP(C16,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(C16,DD!$C$3:$I$203,4,FALSE)</f>
         <v>n_pts_kbn</v>
       </c>
       <c r="E16" t="str">
-        <f>VLOOKUP(C16,DD!$C$3:$I$200,5,FALSE)</f>
+        <f>VLOOKUP(C16,DD!$C$3:$I$203,5,FALSE)</f>
         <v xml:space="preserve">INTEGER </v>
       </c>
       <c r="F16">
-        <f>VLOOKUP(C16,DD!$C$3:$I$200,6,FALSE)</f>
+        <f>VLOOKUP(C16,DD!$C$3:$I$203,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G16" t="str">
@@ -4904,20 +3635,20 @@
         <v xml:space="preserve">n_pts_kbn INTEGER (2), </v>
       </c>
     </row>
-    <row r="17" spans="3:7">
+    <row r="17" spans="2:7">
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17" t="str">
-        <f>VLOOKUP(C17,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(C17,DD!$C$3:$I$203,4,FALSE)</f>
         <v>d_hazimarine</v>
       </c>
       <c r="E17" t="str">
-        <f>VLOOKUP(C17,DD!$C$3:$I$200,5,FALSE)</f>
+        <f>VLOOKUP(C17,DD!$C$3:$I$203,5,FALSE)</f>
         <v>double</v>
       </c>
       <c r="F17" t="str">
-        <f>VLOOKUP(C17,DD!$C$3:$I$200,6,FALSE)</f>
+        <f>VLOOKUP(C17,DD!$C$3:$I$203,6,FALSE)</f>
         <v>10,3</v>
       </c>
       <c r="G17" t="str">
@@ -4925,20 +3656,20 @@
         <v xml:space="preserve">d_hazimarine double(10,3), </v>
       </c>
     </row>
-    <row r="18" spans="3:7">
+    <row r="18" spans="2:7">
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18" t="str">
-        <f>VLOOKUP(C18,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(C18,DD!$C$3:$I$203,4,FALSE)</f>
         <v>d_takane</v>
       </c>
       <c r="E18" t="str">
-        <f>VLOOKUP(C18,DD!$C$3:$I$200,5,FALSE)</f>
+        <f>VLOOKUP(C18,DD!$C$3:$I$203,5,FALSE)</f>
         <v>double</v>
       </c>
       <c r="F18" t="str">
-        <f>VLOOKUP(C18,DD!$C$3:$I$200,6,FALSE)</f>
+        <f>VLOOKUP(C18,DD!$C$3:$I$203,6,FALSE)</f>
         <v>10,3</v>
       </c>
       <c r="G18" t="str">
@@ -4946,20 +3677,20 @@
         <v xml:space="preserve">d_takane double(10,3), </v>
       </c>
     </row>
-    <row r="19" spans="3:7">
+    <row r="19" spans="2:7">
       <c r="C19" t="s">
         <v>16</v>
       </c>
       <c r="D19" t="str">
-        <f>VLOOKUP(C19,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(C19,DD!$C$3:$I$203,4,FALSE)</f>
         <v>d_yasune</v>
       </c>
       <c r="E19" t="str">
-        <f>VLOOKUP(C19,DD!$C$3:$I$200,5,FALSE)</f>
+        <f>VLOOKUP(C19,DD!$C$3:$I$203,5,FALSE)</f>
         <v>double</v>
       </c>
       <c r="F19" t="str">
-        <f>VLOOKUP(C19,DD!$C$3:$I$200,6,FALSE)</f>
+        <f>VLOOKUP(C19,DD!$C$3:$I$203,6,FALSE)</f>
         <v>10,3</v>
       </c>
       <c r="G19" t="str">
@@ -4967,20 +3698,20 @@
         <v xml:space="preserve">d_yasune double(10,3), </v>
       </c>
     </row>
-    <row r="20" spans="3:7">
+    <row r="20" spans="2:7">
       <c r="C20" t="s">
         <v>13</v>
       </c>
       <c r="D20" t="str">
-        <f>VLOOKUP(C20,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(C20,DD!$C$3:$I$203,4,FALSE)</f>
         <v>d_owarine</v>
       </c>
       <c r="E20" t="str">
-        <f>VLOOKUP(C20,DD!$C$3:$I$200,5,FALSE)</f>
+        <f>VLOOKUP(C20,DD!$C$3:$I$203,5,FALSE)</f>
         <v>double</v>
       </c>
       <c r="F20" t="str">
-        <f>VLOOKUP(C20,DD!$C$3:$I$200,6,FALSE)</f>
+        <f>VLOOKUP(C20,DD!$C$3:$I$203,6,FALSE)</f>
         <v>10,3</v>
       </c>
       <c r="G20" t="str">
@@ -4988,20 +3719,20 @@
         <v xml:space="preserve">d_owarine double(10,3), </v>
       </c>
     </row>
-    <row r="21" spans="3:7">
+    <row r="21" spans="2:7">
       <c r="C21" t="s">
         <v>14</v>
       </c>
       <c r="D21" t="str">
-        <f>VLOOKUP(C21,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(C21,DD!$C$3:$I$203,4,FALSE)</f>
         <v>n_dekitakasuu</v>
       </c>
       <c r="E21" t="str">
-        <f>VLOOKUP(C21,DD!$C$3:$I$200,5,FALSE)</f>
+        <f>VLOOKUP(C21,DD!$C$3:$I$203,5,FALSE)</f>
         <v xml:space="preserve">INTEGER </v>
       </c>
       <c r="F21">
-        <f>VLOOKUP(C21,DD!$C$3:$I$200,6,FALSE)</f>
+        <f>VLOOKUP(C21,DD!$C$3:$I$203,6,FALSE)</f>
         <v>30</v>
       </c>
       <c r="G21" t="str">
@@ -5009,20 +3740,20 @@
         <v xml:space="preserve">n_dekitakasuu INTEGER (30), </v>
       </c>
     </row>
-    <row r="22" spans="3:7" s="6" customFormat="1">
+    <row r="22" spans="2:7" s="6" customFormat="1">
       <c r="C22" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D22" s="6" t="str">
-        <f>VLOOKUP(C22,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(C22,DD!$C$3:$I$203,4,FALSE)</f>
         <v>n_yauzyou_cnt</v>
       </c>
       <c r="E22" s="6" t="str">
-        <f>VLOOKUP(C22,DD!$C$3:$I$200,5,FALSE)</f>
+        <f>VLOOKUP(C22,DD!$C$3:$I$203,5,FALSE)</f>
         <v xml:space="preserve">INTEGER </v>
       </c>
       <c r="F22" s="6" t="str">
-        <f>VLOOKUP(C22,DD!$C$3:$I$200,6,FALSE)</f>
+        <f>VLOOKUP(C22,DD!$C$3:$I$203,6,FALSE)</f>
         <v>10,3</v>
       </c>
       <c r="G22" s="6" t="str">
@@ -5030,20 +3761,20 @@
         <v xml:space="preserve">n_yauzyou_cnt INTEGER (10,3), </v>
       </c>
     </row>
-    <row r="23" spans="3:7" s="6" customFormat="1">
+    <row r="23" spans="2:7" s="6" customFormat="1">
       <c r="C23" s="6" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D23" s="6" t="str">
-        <f>VLOOKUP(C23,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(C23,DD!$C$3:$I$203,4,FALSE)</f>
         <v>d_jikasougaku</v>
       </c>
       <c r="E23" s="6" t="str">
-        <f>VLOOKUP(C23,DD!$C$3:$I$200,5,FALSE)</f>
+        <f>VLOOKUP(C23,DD!$C$3:$I$203,5,FALSE)</f>
         <v>double</v>
       </c>
       <c r="F23" s="6" t="str">
-        <f>VLOOKUP(C23,DD!$C$3:$I$200,6,FALSE)</f>
+        <f>VLOOKUP(C23,DD!$C$3:$I$203,6,FALSE)</f>
         <v>30,3</v>
       </c>
       <c r="G23" s="6" t="str">
@@ -5051,20 +3782,20 @@
         <v xml:space="preserve">d_jikasougaku double(30,3), </v>
       </c>
     </row>
-    <row r="24" spans="3:7">
+    <row r="24" spans="2:7">
       <c r="C24" t="s">
         <v>22</v>
       </c>
       <c r="D24" t="str">
-        <f>VLOOKUP(C24,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(C24,DD!$C$3:$I$203,4,FALSE)</f>
         <v>d_owarine_before_zoukaritu</v>
       </c>
       <c r="E24" t="str">
-        <f>VLOOKUP(C24,DD!$C$3:$I$200,5,FALSE)</f>
+        <f>VLOOKUP(C24,DD!$C$3:$I$203,5,FALSE)</f>
         <v>double</v>
       </c>
       <c r="F24" t="str">
-        <f>VLOOKUP(C24,DD!$C$3:$I$200,6,FALSE)</f>
+        <f>VLOOKUP(C24,DD!$C$3:$I$203,6,FALSE)</f>
         <v>10,3</v>
       </c>
       <c r="G24" t="str">
@@ -5072,20 +3803,20 @@
         <v xml:space="preserve">d_owarine_before_zoukaritu double(10,3), </v>
       </c>
     </row>
-    <row r="25" spans="3:7">
+    <row r="25" spans="2:7">
       <c r="C25" t="s">
         <v>20</v>
       </c>
       <c r="D25" t="str">
-        <f>VLOOKUP(C25,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(C25,DD!$C$3:$I$203,4,FALSE)</f>
         <v>d_owarine_before_zoukagk</v>
       </c>
       <c r="E25" t="str">
-        <f>VLOOKUP(C25,DD!$C$3:$I$200,5,FALSE)</f>
+        <f>VLOOKUP(C25,DD!$C$3:$I$203,5,FALSE)</f>
         <v>double</v>
       </c>
       <c r="F25" t="str">
-        <f>VLOOKUP(C25,DD!$C$3:$I$200,6,FALSE)</f>
+        <f>VLOOKUP(C25,DD!$C$3:$I$203,6,FALSE)</f>
         <v>10,3</v>
       </c>
       <c r="G25" t="str">
@@ -5093,20 +3824,20 @@
         <v xml:space="preserve">d_owarine_before_zoukagk double(10,3), </v>
       </c>
     </row>
-    <row r="26" spans="3:7">
+    <row r="26" spans="2:7">
       <c r="C26" t="s">
         <v>24</v>
       </c>
       <c r="D26" t="str">
-        <f>VLOOKUP(C26,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(C26,DD!$C$3:$I$203,4,FALSE)</f>
         <v>n_neugokikbn</v>
       </c>
       <c r="E26" t="str">
-        <f>VLOOKUP(C26,DD!$C$3:$I$200,5,FALSE)</f>
+        <f>VLOOKUP(C26,DD!$C$3:$I$203,5,FALSE)</f>
         <v xml:space="preserve">INTEGER </v>
       </c>
       <c r="F26">
-        <f>VLOOKUP(C26,DD!$C$3:$I$200,6,FALSE)</f>
+        <f>VLOOKUP(C26,DD!$C$3:$I$203,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G26" t="str">
@@ -5114,20 +3845,20 @@
         <v xml:space="preserve">n_neugokikbn INTEGER (2), </v>
       </c>
     </row>
-    <row r="27" spans="3:7">
+    <row r="27" spans="2:7">
       <c r="C27" t="s">
         <v>19</v>
       </c>
       <c r="D27" t="str">
-        <f>VLOOKUP(C27,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(C27,DD!$C$3:$I$203,4,FALSE)</f>
         <v>n_stop_torihiki_kbn</v>
       </c>
       <c r="E27" t="str">
-        <f>VLOOKUP(C27,DD!$C$3:$I$200,5,FALSE)</f>
+        <f>VLOOKUP(C27,DD!$C$3:$I$203,5,FALSE)</f>
         <v xml:space="preserve">INTEGER </v>
       </c>
       <c r="F27">
-        <f>VLOOKUP(C27,DD!$C$3:$I$200,6,FALSE)</f>
+        <f>VLOOKUP(C27,DD!$C$3:$I$203,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G27" t="str">
@@ -5135,20 +3866,20 @@
         <v xml:space="preserve">n_stop_torihiki_kbn INTEGER (2), </v>
       </c>
     </row>
-    <row r="28" spans="3:7">
+    <row r="28" spans="2:7">
       <c r="C28" t="s">
         <v>23</v>
       </c>
       <c r="D28" t="str">
-        <f>VLOOKUP(C28,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(C28,DD!$C$3:$I$203,4,FALSE)</f>
         <v>d_pts_owarine_zoukaritu</v>
       </c>
       <c r="E28" t="str">
-        <f>VLOOKUP(C28,DD!$C$3:$I$200,5,FALSE)</f>
+        <f>VLOOKUP(C28,DD!$C$3:$I$203,5,FALSE)</f>
         <v>double</v>
       </c>
       <c r="F28" t="str">
-        <f>VLOOKUP(C28,DD!$C$3:$I$200,6,FALSE)</f>
+        <f>VLOOKUP(C28,DD!$C$3:$I$203,6,FALSE)</f>
         <v>5,3</v>
       </c>
       <c r="G28" t="str">
@@ -5156,20 +3887,20 @@
         <v xml:space="preserve">d_pts_owarine_zoukaritu double(5,3), </v>
       </c>
     </row>
-    <row r="29" spans="3:7">
+    <row r="29" spans="2:7">
       <c r="C29" t="s">
         <v>21</v>
       </c>
       <c r="D29" t="str">
-        <f>VLOOKUP(C29,DD!$C$3:$I$200,4,FALSE)</f>
+        <f>VLOOKUP(C29,DD!$C$3:$I$203,4,FALSE)</f>
         <v>d_pts_owarine_zoukagk</v>
       </c>
       <c r="E29" t="str">
-        <f>VLOOKUP(C29,DD!$C$3:$I$200,5,FALSE)</f>
+        <f>VLOOKUP(C29,DD!$C$3:$I$203,5,FALSE)</f>
         <v>double</v>
       </c>
       <c r="F29" t="str">
-        <f>VLOOKUP(C29,DD!$C$3:$I$200,6,FALSE)</f>
+        <f>VLOOKUP(C29,DD!$C$3:$I$203,6,FALSE)</f>
         <v>10,3</v>
       </c>
       <c r="G29" t="str">
@@ -5177,882 +3908,987 @@
         <v xml:space="preserve">d_pts_owarine_zoukagk double(10,3), </v>
       </c>
     </row>
-    <row r="30" spans="3:7">
-      <c r="C30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" t="str">
-        <f>VLOOKUP(C30,DD!$C$3:$I$200,4,FALSE)</f>
-        <v>n_pts_neugokikbn</v>
-      </c>
-      <c r="E30" t="str">
-        <f>VLOOKUP(C30,DD!$C$3:$I$200,5,FALSE)</f>
+    <row r="31" spans="2:7" s="15" customFormat="1"/>
+    <row r="32" spans="2:7">
+      <c r="B32" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E32" s="14" t="str">
+        <f>"create table "&amp;B32&amp;"("&amp;_xlfn.CONCAT(G34:G39)&amp;" PRIMARY KEY("&amp;E33&amp;"));"</f>
+        <v>create table t_meigaranews(n_meigaraid INTEGER (4), s_happyouymd varchar(8), n_renban INTEGER (5), n_data_syutokumoto_kbn INTEGER (2), s_title varchar(200), s_kijinaiyou varchar(1000),  PRIMARY KEY(n_meigaraid, s_happyouymd));</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="E33" s="14" t="str">
+        <f>D34&amp;", "&amp;D35</f>
+        <v>n_meigaraid, s_happyouymd</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" t="str">
+        <f>VLOOKUP(C34,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>n_meigaraid</v>
+      </c>
+      <c r="E34" t="str">
+        <f>VLOOKUP(C34,DD!$C$3:$I$203,5,FALSE)</f>
         <v xml:space="preserve">INTEGER </v>
       </c>
-      <c r="F30">
-        <f>VLOOKUP(C30,DD!$C$3:$I$200,6,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="G30" t="str">
-        <f>D30&amp;" "&amp;E30&amp;"("&amp;F30&amp;"), "</f>
-        <v xml:space="preserve">n_pts_neugokikbn INTEGER (2), </v>
-      </c>
-    </row>
-    <row r="32" spans="3:7" s="15" customFormat="1"/>
-    <row r="33" spans="2:7">
-      <c r="B33" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="E33" s="14" t="str">
-        <f>"create table "&amp;B33&amp;"("&amp;_xlfn.CONCAT(G35:G40)&amp;" PRIMARY KEY("&amp;E34&amp;"));"</f>
-        <v>create table t_meigaranews(n_meigaraid INTEGER (4), s_happyouymd varchar(8), n_renban INTEGER (5), n_data_syutokumoto_kbn INTEGER (2), s_title varchar(200), s_kijinaiyou varchar(1000),  PRIMARY KEY(n_meigaraid, s_happyouymd));</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="E34" s="14" t="str">
-        <f>D35&amp;", "&amp;D36</f>
-        <v>n_meigaraid, s_happyouymd</v>
+      <c r="F34">
+        <f>VLOOKUP(C34,DD!$C$3:$I$203,6,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="G34" t="str">
+        <f>D34&amp;" "&amp;E34&amp;"("&amp;F34&amp;"), "</f>
+        <v xml:space="preserve">n_meigaraid INTEGER (4), </v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="C35" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D35" t="str">
-        <f>VLOOKUP(C35,DD!$C$3:$I$200,4,FALSE)</f>
-        <v>n_meigaraid</v>
+        <f>VLOOKUP(C35,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>s_happyouymd</v>
       </c>
       <c r="E35" t="str">
-        <f>VLOOKUP(C35,DD!$C$3:$I$200,5,FALSE)</f>
-        <v xml:space="preserve">INTEGER </v>
+        <f>VLOOKUP(C35,DD!$C$3:$I$203,5,FALSE)</f>
+        <v>varchar</v>
       </c>
       <c r="F35">
-        <f>VLOOKUP(C35,DD!$C$3:$I$200,6,FALSE)</f>
-        <v>4</v>
+        <f>VLOOKUP(C35,DD!$C$3:$I$203,6,FALSE)</f>
+        <v>8</v>
       </c>
       <c r="G35" t="str">
-        <f>D35&amp;" "&amp;E35&amp;"("&amp;F35&amp;"), "</f>
-        <v xml:space="preserve">n_meigaraid INTEGER (4), </v>
+        <f t="shared" ref="G35:G39" si="3">D35&amp;" "&amp;E35&amp;"("&amp;F35&amp;"), "</f>
+        <v xml:space="preserve">s_happyouymd varchar(8), </v>
       </c>
     </row>
     <row r="36" spans="2:7">
       <c r="C36" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D36" t="str">
-        <f>VLOOKUP(C36,DD!$C$3:$I$200,4,FALSE)</f>
-        <v>s_happyouymd</v>
+        <f>VLOOKUP(C36,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>n_renban</v>
       </c>
       <c r="E36" t="str">
-        <f>VLOOKUP(C36,DD!$C$3:$I$200,5,FALSE)</f>
-        <v>varchar</v>
+        <f>VLOOKUP(C36,DD!$C$3:$I$203,5,FALSE)</f>
+        <v xml:space="preserve">INTEGER </v>
       </c>
       <c r="F36">
-        <f>VLOOKUP(C36,DD!$C$3:$I$200,6,FALSE)</f>
-        <v>8</v>
+        <f>VLOOKUP(C36,DD!$C$3:$I$203,6,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" ref="G36:G40" si="3">D36&amp;" "&amp;E36&amp;"("&amp;F36&amp;"), "</f>
-        <v xml:space="preserve">s_happyouymd varchar(8), </v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">n_renban INTEGER (5), </v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="C37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D37" t="str">
-        <f>VLOOKUP(C37,DD!$C$3:$I$200,4,FALSE)</f>
-        <v>n_renban</v>
+        <f>VLOOKUP(C37,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>n_data_syutokumoto_kbn</v>
       </c>
       <c r="E37" t="str">
-        <f>VLOOKUP(C37,DD!$C$3:$I$200,5,FALSE)</f>
+        <f>VLOOKUP(C37,DD!$C$3:$I$203,5,FALSE)</f>
         <v xml:space="preserve">INTEGER </v>
       </c>
       <c r="F37">
-        <f>VLOOKUP(C37,DD!$C$3:$I$200,6,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(C37,DD!$C$3:$I$203,6,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">n_renban INTEGER (5), </v>
+        <v xml:space="preserve">n_data_syutokumoto_kbn INTEGER (2), </v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="C38" t="s">
-        <v>27</v>
+        <v>196</v>
       </c>
       <c r="D38" t="str">
-        <f>VLOOKUP(C38,DD!$C$3:$I$200,4,FALSE)</f>
-        <v>n_data_syutokumoto_kbn</v>
+        <f>VLOOKUP(C38,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>s_title</v>
       </c>
       <c r="E38" t="str">
-        <f>VLOOKUP(C38,DD!$C$3:$I$200,5,FALSE)</f>
-        <v xml:space="preserve">INTEGER </v>
+        <f>VLOOKUP(C38,DD!$C$3:$I$203,5,FALSE)</f>
+        <v>varchar</v>
       </c>
       <c r="F38">
-        <f>VLOOKUP(C38,DD!$C$3:$I$200,6,FALSE)</f>
-        <v>2</v>
+        <f>VLOOKUP(C38,DD!$C$3:$I$203,6,FALSE)</f>
+        <v>200</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">n_data_syutokumoto_kbn INTEGER (2), </v>
+        <v xml:space="preserve">s_title varchar(200), </v>
       </c>
     </row>
     <row r="39" spans="2:7">
       <c r="C39" t="s">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="D39" t="str">
-        <f>VLOOKUP(C39,DD!$C$3:$I$200,4,FALSE)</f>
-        <v>s_title</v>
+        <f>VLOOKUP(C39,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>s_kijinaiyou</v>
       </c>
       <c r="E39" t="str">
-        <f>VLOOKUP(C39,DD!$C$3:$I$200,5,FALSE)</f>
+        <f>VLOOKUP(C39,DD!$C$3:$I$203,5,FALSE)</f>
         <v>varchar</v>
       </c>
       <c r="F39">
-        <f>VLOOKUP(C39,DD!$C$3:$I$200,6,FALSE)</f>
-        <v>200</v>
+        <f>VLOOKUP(C39,DD!$C$3:$I$203,6,FALSE)</f>
+        <v>1000</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">s_title varchar(200), </v>
-      </c>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="C40" t="s">
-        <v>45</v>
-      </c>
-      <c r="D40" t="str">
-        <f>VLOOKUP(C40,DD!$C$3:$I$200,4,FALSE)</f>
-        <v>s_kijinaiyou</v>
-      </c>
-      <c r="E40" t="str">
-        <f>VLOOKUP(C40,DD!$C$3:$I$200,5,FALSE)</f>
-        <v>varchar</v>
-      </c>
-      <c r="F40">
-        <f>VLOOKUP(C40,DD!$C$3:$I$200,6,FALSE)</f>
-        <v>1000</v>
-      </c>
-      <c r="G40" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">s_kijinaiyou varchar(1000), </v>
       </c>
     </row>
-    <row r="42" spans="2:7" s="15" customFormat="1"/>
-    <row r="43" spans="2:7">
-      <c r="B43" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="E43" s="14" t="str">
-        <f>"create table "&amp;B43&amp;"("&amp;_xlfn.CONCAT(G45:G55)&amp;");"</f>
+    <row r="41" spans="2:7" s="15" customFormat="1"/>
+    <row r="42" spans="2:7">
+      <c r="B42" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E42" s="14" t="str">
+        <f>"create table "&amp;B42&amp;"("&amp;_xlfn.CONCAT(G44:G54)&amp;");"</f>
         <v>create table t_tubuyaki(n_tubuyaki_id INTEGER  primary key AUTOINCREMENT, n_meigaraid INTEGER (4), s_userid varchar(30), s_tubuyaki_nitiji varchar(15), s_tubuyaki varchar(3000), s_tubuyakiurl varchar(500), n_followersuu INTEGER (15), n_neugokikbn INTEGER (2), d_one_neugoki_eikyousisuu double(20,3), d_all_neugoki_eikyousisuu double(20,3), n_kousin_jyoukyou_kbn INTEGER (2));</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="C44" t="s">
+        <v>197</v>
+      </c>
+      <c r="D44" t="str">
+        <f>VLOOKUP(C44,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>n_tubuyaki_id</v>
+      </c>
+      <c r="E44" t="str">
+        <f>VLOOKUP(C44,DD!$C$3:$I$203,5,FALSE)</f>
+        <v xml:space="preserve">INTEGER </v>
+      </c>
+      <c r="F44">
+        <f>VLOOKUP(C44,DD!$C$3:$I$203,6,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="G44" t="str">
+        <f>D44&amp;" "&amp;E44&amp;" primary key AUTOINCREMENT, "</f>
+        <v xml:space="preserve">n_tubuyaki_id INTEGER  primary key AUTOINCREMENT, </v>
       </c>
     </row>
     <row r="45" spans="2:7">
       <c r="C45" t="s">
-        <v>201</v>
+        <v>37</v>
       </c>
       <c r="D45" t="str">
-        <f>VLOOKUP(C45,DD!$C$3:$I$200,4,FALSE)</f>
-        <v>n_tubuyaki_id</v>
+        <f>VLOOKUP(C45,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>n_meigaraid</v>
       </c>
       <c r="E45" t="str">
-        <f>VLOOKUP(C45,DD!$C$3:$I$200,5,FALSE)</f>
+        <f>VLOOKUP(C45,DD!$C$3:$I$203,5,FALSE)</f>
         <v xml:space="preserve">INTEGER </v>
       </c>
       <c r="F45">
-        <f>VLOOKUP(C45,DD!$C$3:$I$200,6,FALSE)</f>
-        <v>15</v>
+        <f>VLOOKUP(C45,DD!$C$3:$I$203,6,FALSE)</f>
+        <v>4</v>
       </c>
       <c r="G45" t="str">
-        <f>D45&amp;" "&amp;E45&amp;" primary key AUTOINCREMENT, "</f>
-        <v xml:space="preserve">n_tubuyaki_id INTEGER  primary key AUTOINCREMENT, </v>
+        <f>D45&amp;" "&amp;E45&amp;"("&amp;F45&amp;"), "</f>
+        <v xml:space="preserve">n_meigaraid INTEGER (4), </v>
       </c>
     </row>
     <row r="46" spans="2:7">
       <c r="C46" t="s">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="D46" t="str">
-        <f>VLOOKUP(C46,DD!$C$3:$I$200,4,FALSE)</f>
-        <v>n_meigaraid</v>
+        <f>VLOOKUP(C46,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>s_userid</v>
       </c>
       <c r="E46" t="str">
-        <f>VLOOKUP(C46,DD!$C$3:$I$200,5,FALSE)</f>
-        <v xml:space="preserve">INTEGER </v>
+        <f>VLOOKUP(C46,DD!$C$3:$I$203,5,FALSE)</f>
+        <v>varchar</v>
       </c>
       <c r="F46">
-        <f>VLOOKUP(C46,DD!$C$3:$I$200,6,FALSE)</f>
-        <v>4</v>
+        <f>VLOOKUP(C46,DD!$C$3:$I$203,6,FALSE)</f>
+        <v>30</v>
       </c>
       <c r="G46" t="str">
-        <f>D46&amp;" "&amp;E46&amp;"("&amp;F46&amp;"), "</f>
-        <v xml:space="preserve">n_meigaraid INTEGER (4), </v>
+        <f t="shared" ref="G46:G53" si="4">D46&amp;" "&amp;E46&amp;"("&amp;F46&amp;"), "</f>
+        <v xml:space="preserve">s_userid varchar(30), </v>
       </c>
     </row>
     <row r="47" spans="2:7">
       <c r="C47" t="s">
-        <v>292</v>
+        <v>36</v>
       </c>
       <c r="D47" t="str">
-        <f>VLOOKUP(C47,DD!$C$3:$I$200,4,FALSE)</f>
-        <v>s_userid</v>
+        <f>VLOOKUP(C47,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>s_tubuyaki_nitiji</v>
       </c>
       <c r="E47" t="str">
-        <f>VLOOKUP(C47,DD!$C$3:$I$200,5,FALSE)</f>
+        <f>VLOOKUP(C47,DD!$C$3:$I$203,5,FALSE)</f>
         <v>varchar</v>
       </c>
       <c r="F47">
-        <f>VLOOKUP(C47,DD!$C$3:$I$200,6,FALSE)</f>
-        <v>30</v>
+        <f>VLOOKUP(C47,DD!$C$3:$I$203,6,FALSE)</f>
+        <v>15</v>
       </c>
       <c r="G47" t="str">
-        <f t="shared" ref="G47:G54" si="4">D47&amp;" "&amp;E47&amp;"("&amp;F47&amp;"), "</f>
-        <v xml:space="preserve">s_userid varchar(30), </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">s_tubuyaki_nitiji varchar(15), </v>
       </c>
     </row>
     <row r="48" spans="2:7">
       <c r="C48" t="s">
-        <v>36</v>
+        <v>198</v>
       </c>
       <c r="D48" t="str">
-        <f>VLOOKUP(C48,DD!$C$3:$I$200,4,FALSE)</f>
-        <v>s_tubuyaki_nitiji</v>
+        <f>VLOOKUP(C48,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>s_tubuyaki</v>
       </c>
       <c r="E48" t="str">
-        <f>VLOOKUP(C48,DD!$C$3:$I$200,5,FALSE)</f>
+        <f>VLOOKUP(C48,DD!$C$3:$I$203,5,FALSE)</f>
         <v>varchar</v>
       </c>
       <c r="F48">
-        <f>VLOOKUP(C48,DD!$C$3:$I$200,6,FALSE)</f>
-        <v>15</v>
+        <f>VLOOKUP(C48,DD!$C$3:$I$203,6,FALSE)</f>
+        <v>3000</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">s_tubuyaki_nitiji varchar(15), </v>
+        <v xml:space="preserve">s_tubuyaki varchar(3000), </v>
       </c>
     </row>
     <row r="49" spans="2:7">
       <c r="C49" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D49" t="str">
-        <f>VLOOKUP(C49,DD!$C$3:$I$200,4,FALSE)</f>
-        <v>s_tubuyaki</v>
+        <f>VLOOKUP(C49,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>s_tubuyakiurl</v>
       </c>
       <c r="E49" t="str">
-        <f>VLOOKUP(C49,DD!$C$3:$I$200,5,FALSE)</f>
+        <f>VLOOKUP(C49,DD!$C$3:$I$203,5,FALSE)</f>
         <v>varchar</v>
       </c>
       <c r="F49">
-        <f>VLOOKUP(C49,DD!$C$3:$I$200,6,FALSE)</f>
-        <v>3000</v>
+        <f>VLOOKUP(C49,DD!$C$3:$I$203,6,FALSE)</f>
+        <v>500</v>
       </c>
       <c r="G49" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">s_tubuyaki varchar(3000), </v>
+        <f t="shared" ref="G49" si="5">D49&amp;" "&amp;E49&amp;"("&amp;F49&amp;"), "</f>
+        <v xml:space="preserve">s_tubuyakiurl varchar(500), </v>
       </c>
     </row>
     <row r="50" spans="2:7">
       <c r="C50" t="s">
-        <v>295</v>
+        <v>41</v>
       </c>
       <c r="D50" t="str">
-        <f>VLOOKUP(C50,DD!$C$3:$I$200,4,FALSE)</f>
-        <v>s_tubuyakiurl</v>
+        <f>VLOOKUP(C50,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>n_followersuu</v>
       </c>
       <c r="E50" t="str">
-        <f>VLOOKUP(C50,DD!$C$3:$I$200,5,FALSE)</f>
-        <v>varchar</v>
+        <f>VLOOKUP(C50,DD!$C$3:$I$203,5,FALSE)</f>
+        <v xml:space="preserve">INTEGER </v>
       </c>
       <c r="F50">
-        <f>VLOOKUP(C50,DD!$C$3:$I$200,6,FALSE)</f>
-        <v>500</v>
+        <f>VLOOKUP(C50,DD!$C$3:$I$203,6,FALSE)</f>
+        <v>15</v>
       </c>
       <c r="G50" t="str">
-        <f t="shared" ref="G50" si="5">D50&amp;" "&amp;E50&amp;"("&amp;F50&amp;"), "</f>
-        <v xml:space="preserve">s_tubuyakiurl varchar(500), </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">n_followersuu INTEGER (15), </v>
       </c>
     </row>
     <row r="51" spans="2:7">
       <c r="C51" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D51" t="str">
-        <f>VLOOKUP(C51,DD!$C$3:$I$200,4,FALSE)</f>
-        <v>n_followersuu</v>
+        <f>VLOOKUP(C51,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>n_neugokikbn</v>
       </c>
       <c r="E51" t="str">
-        <f>VLOOKUP(C51,DD!$C$3:$I$200,5,FALSE)</f>
+        <f>VLOOKUP(C51,DD!$C$3:$I$203,5,FALSE)</f>
         <v xml:space="preserve">INTEGER </v>
       </c>
       <c r="F51">
-        <f>VLOOKUP(C51,DD!$C$3:$I$200,6,FALSE)</f>
-        <v>15</v>
+        <f>VLOOKUP(C51,DD!$C$3:$I$203,6,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">n_followersuu INTEGER (15), </v>
+        <v xml:space="preserve">n_neugokikbn INTEGER (2), </v>
       </c>
     </row>
     <row r="52" spans="2:7">
       <c r="C52" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D52" t="str">
-        <f>VLOOKUP(C52,DD!$C$3:$I$200,4,FALSE)</f>
-        <v>n_neugokikbn</v>
+        <f>VLOOKUP(C52,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>d_one_neugoki_eikyousisuu</v>
       </c>
       <c r="E52" t="str">
-        <f>VLOOKUP(C52,DD!$C$3:$I$200,5,FALSE)</f>
-        <v xml:space="preserve">INTEGER </v>
-      </c>
-      <c r="F52">
-        <f>VLOOKUP(C52,DD!$C$3:$I$200,6,FALSE)</f>
-        <v>2</v>
+        <f>VLOOKUP(C52,DD!$C$3:$I$203,5,FALSE)</f>
+        <v>double</v>
+      </c>
+      <c r="F52" t="str">
+        <f>VLOOKUP(C52,DD!$C$3:$I$203,6,FALSE)</f>
+        <v>20,3</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">n_neugokikbn INTEGER (2), </v>
+        <v xml:space="preserve">d_one_neugoki_eikyousisuu double(20,3), </v>
       </c>
     </row>
     <row r="53" spans="2:7">
       <c r="C53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D53" t="str">
-        <f>VLOOKUP(C53,DD!$C$3:$I$200,4,FALSE)</f>
-        <v>d_one_neugoki_eikyousisuu</v>
+        <f>VLOOKUP(C53,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>d_all_neugoki_eikyousisuu</v>
       </c>
       <c r="E53" t="str">
-        <f>VLOOKUP(C53,DD!$C$3:$I$200,5,FALSE)</f>
+        <f>VLOOKUP(C53,DD!$C$3:$I$203,5,FALSE)</f>
         <v>double</v>
       </c>
       <c r="F53" t="str">
-        <f>VLOOKUP(C53,DD!$C$3:$I$200,6,FALSE)</f>
+        <f>VLOOKUP(C53,DD!$C$3:$I$203,6,FALSE)</f>
         <v>20,3</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">d_one_neugoki_eikyousisuu double(20,3), </v>
+        <v xml:space="preserve">d_all_neugoki_eikyousisuu double(20,3), </v>
       </c>
     </row>
     <row r="54" spans="2:7">
       <c r="C54" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D54" t="str">
-        <f>VLOOKUP(C54,DD!$C$3:$I$200,4,FALSE)</f>
-        <v>d_all_neugoki_eikyousisuu</v>
+        <f>VLOOKUP(C54,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>n_kousin_jyoukyou_kbn</v>
       </c>
       <c r="E54" t="str">
-        <f>VLOOKUP(C54,DD!$C$3:$I$200,5,FALSE)</f>
-        <v>double</v>
-      </c>
-      <c r="F54" t="str">
-        <f>VLOOKUP(C54,DD!$C$3:$I$200,6,FALSE)</f>
-        <v>20,3</v>
+        <f>VLOOKUP(C54,DD!$C$3:$I$203,5,FALSE)</f>
+        <v xml:space="preserve">INTEGER </v>
+      </c>
+      <c r="F54">
+        <f>VLOOKUP(C54,DD!$C$3:$I$203,6,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="G54" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">d_all_neugoki_eikyousisuu double(20,3), </v>
-      </c>
-    </row>
-    <row r="55" spans="2:7">
-      <c r="C55" t="s">
-        <v>69</v>
-      </c>
-      <c r="D55" t="str">
-        <f>VLOOKUP(C55,DD!$C$3:$I$200,4,FALSE)</f>
-        <v>n_kousin_jyoukyou_kbn</v>
-      </c>
-      <c r="E55" t="str">
-        <f>VLOOKUP(C55,DD!$C$3:$I$200,5,FALSE)</f>
+        <f>D54&amp;" "&amp;E54&amp;"("&amp;F54&amp;")"</f>
+        <v>n_kousin_jyoukyou_kbn INTEGER (2)</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" s="15" customFormat="1"/>
+    <row r="57" spans="2:7">
+      <c r="B57" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="E57" s="14" t="str">
+        <f>"create table "&amp;B57&amp;"("&amp;_xlfn.CONCAT(G59:G68)&amp;");"</f>
+        <v>create table t_tubuyakitangoseisitu(n_tango_id INTEGER  primary key AUTOINCREMENT, s_tango varchar(100), s_hinsikbn_1 varchar(10), s_hinsikbn_2 varchar(10), s_hinsikbn_3 varchar(10), s_hinsikbn_4 varchar(10), d_eikyoudo_age double(20,3), d_eikyoudo_sage double(20,3), n_update_cnt INTEGER (10), n_eikyou_musi_flg INTEGER (1));</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="C59" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" t="str">
+        <f>VLOOKUP(C59,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>n_tango_id</v>
+      </c>
+      <c r="E59" t="str">
+        <f>VLOOKUP(C59,DD!$C$3:$I$203,5,FALSE)</f>
         <v xml:space="preserve">INTEGER </v>
       </c>
-      <c r="F55">
-        <f>VLOOKUP(C55,DD!$C$3:$I$200,6,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="G55" t="str">
-        <f>D55&amp;" "&amp;E55&amp;"("&amp;F55&amp;")"</f>
-        <v>n_kousin_jyoukyou_kbn INTEGER (2)</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" s="15" customFormat="1"/>
-    <row r="58" spans="2:7">
-      <c r="B58" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="E58" s="14" t="str">
-        <f>"create table "&amp;B58&amp;"("&amp;_xlfn.CONCAT(G60:G64)&amp;");"</f>
-        <v>create table t_tubuyakitangoseisitu(n_tango_id INTEGER  primary key AUTOINCREMENT, s_tango varchar(100), n_hinsikbn INTEGER (2), d_eikyoudo_age double(20,3), d_eikyoudo_sage double(20,3));</v>
+      <c r="F59">
+        <f>VLOOKUP(C59,DD!$C$3:$I$203,6,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="G59" t="str">
+        <f>D59&amp;" "&amp;E59&amp;" primary key AUTOINCREMENT, "</f>
+        <v xml:space="preserve">n_tango_id INTEGER  primary key AUTOINCREMENT, </v>
       </c>
     </row>
     <row r="60" spans="2:7">
       <c r="C60" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D60" t="str">
-        <f>VLOOKUP(C60,DD!$C$3:$I$200,4,FALSE)</f>
-        <v>n_tango_id</v>
+        <f>VLOOKUP(C60,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>s_tango</v>
       </c>
       <c r="E60" t="str">
-        <f>VLOOKUP(C60,DD!$C$3:$I$200,5,FALSE)</f>
-        <v xml:space="preserve">INTEGER </v>
+        <f>VLOOKUP(C60,DD!$C$3:$I$203,5,FALSE)</f>
+        <v>varchar</v>
       </c>
       <c r="F60">
-        <f>VLOOKUP(C60,DD!$C$3:$I$200,6,FALSE)</f>
-        <v>50</v>
+        <f>VLOOKUP(C60,DD!$C$3:$I$203,6,FALSE)</f>
+        <v>100</v>
       </c>
       <c r="G60" t="str">
-        <f>D60&amp;" "&amp;E60&amp;" primary key AUTOINCREMENT, "</f>
-        <v xml:space="preserve">n_tango_id INTEGER  primary key AUTOINCREMENT, </v>
+        <f>D60&amp;" "&amp;E60&amp;"("&amp;F60&amp;"), "</f>
+        <v xml:space="preserve">s_tango varchar(100), </v>
       </c>
     </row>
     <row r="61" spans="2:7">
       <c r="C61" t="s">
-        <v>35</v>
+        <v>215</v>
       </c>
       <c r="D61" t="str">
-        <f>VLOOKUP(C61,DD!$C$3:$I$200,4,FALSE)</f>
-        <v>s_tango</v>
+        <f>VLOOKUP(C61,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>s_hinsikbn_1</v>
       </c>
       <c r="E61" t="str">
-        <f>VLOOKUP(C61,DD!$C$3:$I$200,5,FALSE)</f>
+        <f>VLOOKUP(C61,DD!$C$3:$I$203,5,FALSE)</f>
         <v>varchar</v>
       </c>
       <c r="F61">
-        <f>VLOOKUP(C61,DD!$C$3:$I$200,6,FALSE)</f>
-        <v>100</v>
+        <f>VLOOKUP(C61,DD!$C$3:$I$203,6,FALSE)</f>
+        <v>10</v>
       </c>
       <c r="G61" t="str">
-        <f>D61&amp;" "&amp;E61&amp;"("&amp;F61&amp;"), "</f>
-        <v xml:space="preserve">s_tango varchar(100), </v>
+        <f t="shared" ref="G61:G67" si="6">D61&amp;" "&amp;E61&amp;"("&amp;F61&amp;"), "</f>
+        <v xml:space="preserve">s_hinsikbn_1 varchar(10), </v>
       </c>
     </row>
     <row r="62" spans="2:7">
       <c r="C62" t="s">
-        <v>71</v>
+        <v>216</v>
       </c>
       <c r="D62" t="str">
-        <f>VLOOKUP(C62,DD!$C$3:$I$200,4,FALSE)</f>
-        <v>n_hinsikbn</v>
+        <f>VLOOKUP(C62,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>s_hinsikbn_2</v>
       </c>
       <c r="E62" t="str">
-        <f>VLOOKUP(C62,DD!$C$3:$I$200,5,FALSE)</f>
-        <v xml:space="preserve">INTEGER </v>
+        <f>VLOOKUP(C62,DD!$C$3:$I$203,5,FALSE)</f>
+        <v>varchar</v>
       </c>
       <c r="F62">
-        <f>VLOOKUP(C62,DD!$C$3:$I$200,6,FALSE)</f>
-        <v>2</v>
+        <f>VLOOKUP(C62,DD!$C$3:$I$203,6,FALSE)</f>
+        <v>10</v>
       </c>
       <c r="G62" t="str">
-        <f t="shared" ref="G62:G63" si="6">D62&amp;" "&amp;E62&amp;"("&amp;F62&amp;"), "</f>
-        <v xml:space="preserve">n_hinsikbn INTEGER (2), </v>
+        <f t="shared" ref="G62:G64" si="7">D62&amp;" "&amp;E62&amp;"("&amp;F62&amp;"), "</f>
+        <v xml:space="preserve">s_hinsikbn_2 varchar(10), </v>
       </c>
     </row>
     <row r="63" spans="2:7">
       <c r="C63" t="s">
+        <v>217</v>
+      </c>
+      <c r="D63" t="str">
+        <f>VLOOKUP(C63,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>s_hinsikbn_3</v>
+      </c>
+      <c r="E63" t="str">
+        <f>VLOOKUP(C63,DD!$C$3:$I$203,5,FALSE)</f>
+        <v>varchar</v>
+      </c>
+      <c r="F63">
+        <f>VLOOKUP(C63,DD!$C$3:$I$203,6,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">s_hinsikbn_3 varchar(10), </v>
+      </c>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="C64" t="s">
+        <v>218</v>
+      </c>
+      <c r="D64" t="str">
+        <f>VLOOKUP(C64,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>s_hinsikbn_4</v>
+      </c>
+      <c r="E64" t="str">
+        <f>VLOOKUP(C64,DD!$C$3:$I$203,5,FALSE)</f>
+        <v>varchar</v>
+      </c>
+      <c r="F64">
+        <f>VLOOKUP(C64,DD!$C$3:$I$203,6,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">s_hinsikbn_4 varchar(10), </v>
+      </c>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="C65" t="s">
         <v>40</v>
       </c>
-      <c r="D63" t="str">
-        <f>VLOOKUP(C63,DD!$C$3:$I$200,4,FALSE)</f>
+      <c r="D65" t="str">
+        <f>VLOOKUP(C65,DD!$C$3:$I$203,4,FALSE)</f>
         <v>d_eikyoudo_age</v>
       </c>
-      <c r="E63" t="str">
-        <f>VLOOKUP(C63,DD!$C$3:$I$200,5,FALSE)</f>
+      <c r="E65" t="str">
+        <f>VLOOKUP(C65,DD!$C$3:$I$203,5,FALSE)</f>
         <v>double</v>
       </c>
-      <c r="F63" t="str">
-        <f>VLOOKUP(C63,DD!$C$3:$I$200,6,FALSE)</f>
+      <c r="F65" t="str">
+        <f>VLOOKUP(C65,DD!$C$3:$I$203,6,FALSE)</f>
         <v>20,3</v>
       </c>
-      <c r="G63" t="str">
+      <c r="G65" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">d_eikyoudo_age double(20,3), </v>
       </c>
     </row>
-    <row r="64" spans="2:7">
-      <c r="C64" t="s">
+    <row r="66" spans="2:7">
+      <c r="C66" t="s">
         <v>46</v>
       </c>
-      <c r="D64" t="str">
-        <f>VLOOKUP(C64,DD!$C$3:$I$200,4,FALSE)</f>
+      <c r="D66" t="str">
+        <f>VLOOKUP(C66,DD!$C$3:$I$203,4,FALSE)</f>
         <v>d_eikyoudo_sage</v>
       </c>
-      <c r="E64" t="str">
-        <f>VLOOKUP(C64,DD!$C$3:$I$200,5,FALSE)</f>
+      <c r="E66" t="str">
+        <f>VLOOKUP(C66,DD!$C$3:$I$203,5,FALSE)</f>
         <v>double</v>
       </c>
-      <c r="F64" t="str">
-        <f>VLOOKUP(C64,DD!$C$3:$I$200,6,FALSE)</f>
+      <c r="F66" t="str">
+        <f>VLOOKUP(C66,DD!$C$3:$I$203,6,FALSE)</f>
         <v>20,3</v>
       </c>
-      <c r="G64" t="str">
-        <f>D64&amp;" "&amp;E64&amp;"("&amp;F64&amp;")"</f>
-        <v>d_eikyoudo_sage double(20,3)</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" s="15" customFormat="1"/>
+      <c r="G66" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">d_eikyoudo_sage double(20,3), </v>
+      </c>
+    </row>
     <row r="67" spans="2:7">
-      <c r="B67" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="E67" s="14" t="str">
-        <f>"create table "&amp;B67&amp;"("&amp;_xlfn.CONCAT(G69:G72)&amp;" PRIMARY KEY("&amp;E68&amp;"));"</f>
-        <v>create table t_tubuyakitangoseisiturireki(n_tango_id INTEGER (50), s_rirekiymd varchar(8), d_eikyoudo_age double(20,3), d_eikyoudo_sage double(20,3),  PRIMARY KEY(n_tango_id, s_rirekiymd));</v>
+      <c r="C67" t="s">
+        <v>223</v>
+      </c>
+      <c r="D67" t="str">
+        <f>VLOOKUP(C67,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>n_update_cnt</v>
+      </c>
+      <c r="E67" t="str">
+        <f>VLOOKUP(C67,DD!$C$3:$I$203,5,FALSE)</f>
+        <v xml:space="preserve">INTEGER </v>
+      </c>
+      <c r="F67">
+        <f>VLOOKUP(C67,DD!$C$3:$I$203,6,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">n_update_cnt INTEGER (10), </v>
       </c>
     </row>
     <row r="68" spans="2:7">
-      <c r="E68" s="14" t="str">
-        <f>D69&amp;", "&amp;D70</f>
+      <c r="C68" t="s">
+        <v>229</v>
+      </c>
+      <c r="D68" t="str">
+        <f>VLOOKUP(C68,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>n_eikyou_musi_flg</v>
+      </c>
+      <c r="E68" t="str">
+        <f>VLOOKUP(C68,DD!$C$3:$I$203,5,FALSE)</f>
+        <v xml:space="preserve">INTEGER </v>
+      </c>
+      <c r="F68">
+        <f>VLOOKUP(C68,DD!$C$3:$I$203,6,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G68" t="str">
+        <f>D68&amp;" "&amp;E68&amp;"("&amp;F68&amp;")"</f>
+        <v>n_eikyou_musi_flg INTEGER (1)</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" s="15" customFormat="1"/>
+    <row r="71" spans="2:7">
+      <c r="B71" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="E71" s="14" t="str">
+        <f>"create table "&amp;B71&amp;"("&amp;_xlfn.CONCAT(G73:G77)&amp;" PRIMARY KEY("&amp;E72&amp;"));"</f>
+        <v>create table t_tubuyakitangoseisiturireki(n_tango_id INTEGER (50), s_rirekiymd varchar(8), d_eikyoudo_age double(20,3), d_eikyoudo_sage double(20,3), n_update_cnt INTEGER (10),  PRIMARY KEY(n_tango_id, s_rirekiymd));</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="E72" s="14" t="str">
+        <f>D73&amp;", "&amp;D74</f>
         <v>n_tango_id, s_rirekiymd</v>
       </c>
     </row>
-    <row r="69" spans="2:7">
-      <c r="C69" t="s">
+    <row r="73" spans="2:7">
+      <c r="C73" t="s">
         <v>38</v>
       </c>
-      <c r="D69" t="str">
-        <f>VLOOKUP(C69,DD!$C$3:$I$200,4,FALSE)</f>
+      <c r="D73" t="str">
+        <f>VLOOKUP(C73,DD!$C$3:$I$203,4,FALSE)</f>
         <v>n_tango_id</v>
       </c>
-      <c r="E69" t="str">
-        <f>VLOOKUP(C69,DD!$C$3:$I$200,5,FALSE)</f>
+      <c r="E73" t="str">
+        <f>VLOOKUP(C73,DD!$C$3:$I$203,5,FALSE)</f>
         <v xml:space="preserve">INTEGER </v>
       </c>
-      <c r="F69">
-        <f>VLOOKUP(C69,DD!$C$3:$I$200,6,FALSE)</f>
+      <c r="F73">
+        <f>VLOOKUP(C73,DD!$C$3:$I$203,6,FALSE)</f>
         <v>50</v>
       </c>
-      <c r="G69" t="str">
-        <f>D69&amp;" "&amp;E69&amp;"("&amp;F69&amp;"), "</f>
+      <c r="G73" t="str">
+        <f>D73&amp;" "&amp;E73&amp;"("&amp;F73&amp;"), "</f>
         <v xml:space="preserve">n_tango_id INTEGER (50), </v>
       </c>
     </row>
-    <row r="70" spans="2:7">
-      <c r="C70" t="s">
+    <row r="74" spans="2:7">
+      <c r="C74" t="s">
         <v>44</v>
       </c>
-      <c r="D70" t="str">
-        <f>VLOOKUP(C70,DD!$C$3:$I$200,4,FALSE)</f>
+      <c r="D74" t="str">
+        <f>VLOOKUP(C74,DD!$C$3:$I$203,4,FALSE)</f>
         <v>s_rirekiymd</v>
       </c>
-      <c r="E70" t="str">
-        <f>VLOOKUP(C70,DD!$C$3:$I$200,5,FALSE)</f>
+      <c r="E74" t="str">
+        <f>VLOOKUP(C74,DD!$C$3:$I$203,5,FALSE)</f>
         <v>varchar</v>
       </c>
-      <c r="F70">
-        <f>VLOOKUP(C70,DD!$C$3:$I$200,6,FALSE)</f>
+      <c r="F74">
+        <f>VLOOKUP(C74,DD!$C$3:$I$203,6,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="G70" t="str">
-        <f t="shared" ref="G70" si="7">D70&amp;" "&amp;E70&amp;"("&amp;F70&amp;"), "</f>
+      <c r="G74" t="str">
+        <f t="shared" ref="G74" si="8">D74&amp;" "&amp;E74&amp;"("&amp;F74&amp;"), "</f>
         <v xml:space="preserve">s_rirekiymd varchar(8), </v>
       </c>
     </row>
-    <row r="71" spans="2:7">
-      <c r="C71" t="s">
+    <row r="75" spans="2:7">
+      <c r="C75" t="s">
         <v>40</v>
       </c>
-      <c r="D71" t="str">
-        <f>VLOOKUP(C71,DD!$C$3:$I$200,4,FALSE)</f>
+      <c r="D75" t="str">
+        <f>VLOOKUP(C75,DD!$C$3:$I$203,4,FALSE)</f>
         <v>d_eikyoudo_age</v>
       </c>
-      <c r="E71" t="str">
-        <f>VLOOKUP(C71,DD!$C$3:$I$200,5,FALSE)</f>
+      <c r="E75" t="str">
+        <f>VLOOKUP(C75,DD!$C$3:$I$203,5,FALSE)</f>
         <v>double</v>
       </c>
-      <c r="F71" t="str">
-        <f>VLOOKUP(C71,DD!$C$3:$I$200,6,FALSE)</f>
+      <c r="F75" t="str">
+        <f>VLOOKUP(C75,DD!$C$3:$I$203,6,FALSE)</f>
         <v>20,3</v>
       </c>
-      <c r="G71" t="str">
-        <f t="shared" ref="G71:G72" si="8">D71&amp;" "&amp;E71&amp;"("&amp;F71&amp;"), "</f>
+      <c r="G75" t="str">
+        <f t="shared" ref="G75:G77" si="9">D75&amp;" "&amp;E75&amp;"("&amp;F75&amp;"), "</f>
         <v xml:space="preserve">d_eikyoudo_age double(20,3), </v>
       </c>
     </row>
-    <row r="72" spans="2:7">
-      <c r="C72" t="s">
+    <row r="76" spans="2:7">
+      <c r="C76" t="s">
         <v>46</v>
       </c>
-      <c r="D72" t="str">
-        <f>VLOOKUP(C72,DD!$C$3:$I$200,4,FALSE)</f>
+      <c r="D76" t="str">
+        <f>VLOOKUP(C76,DD!$C$3:$I$203,4,FALSE)</f>
         <v>d_eikyoudo_sage</v>
       </c>
-      <c r="E72" t="str">
-        <f>VLOOKUP(C72,DD!$C$3:$I$200,5,FALSE)</f>
+      <c r="E76" t="str">
+        <f>VLOOKUP(C76,DD!$C$3:$I$203,5,FALSE)</f>
         <v>double</v>
       </c>
-      <c r="F72" t="str">
-        <f>VLOOKUP(C72,DD!$C$3:$I$200,6,FALSE)</f>
+      <c r="F76" t="str">
+        <f>VLOOKUP(C76,DD!$C$3:$I$203,6,FALSE)</f>
         <v>20,3</v>
       </c>
-      <c r="G72" t="str">
-        <f t="shared" si="8"/>
+      <c r="G76" t="str">
+        <f t="shared" ref="G76" si="10">D76&amp;" "&amp;E76&amp;"("&amp;F76&amp;"), "</f>
         <v xml:space="preserve">d_eikyoudo_sage double(20,3), </v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" s="15" customFormat="1"/>
-    <row r="75" spans="2:7">
-      <c r="B75" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="E75" s="14" t="str">
-        <f>"create table "&amp;B75&amp;"("&amp;_xlfn.CONCAT(G77:G82)&amp;" PRIMARY KEY("&amp;E76&amp;"));"</f>
-        <v>create table t_meigaratubuyakisummary(n_meigaraid INTEGER (4), s_dataymd varchar(8), n_neugokikbn INTEGER (2), d_one_neugoki_eikyousisuu_ruikei double(20,3), d_all_neugoki_eikyousisuu_ruikei double(20,3), d_bunseki_kekka_tekiseido double(20,3),  PRIMARY KEY(n_meigaraid, s_dataymd));</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7">
-      <c r="E76" s="14" t="str">
-        <f>D77&amp;", "&amp;D78</f>
-        <v>n_meigaraid, s_dataymd</v>
       </c>
     </row>
     <row r="77" spans="2:7">
       <c r="C77" t="s">
-        <v>37</v>
+        <v>225</v>
       </c>
       <c r="D77" t="str">
-        <f>VLOOKUP(C77,DD!$C$3:$I$200,4,FALSE)</f>
-        <v>n_meigaraid</v>
+        <f>VLOOKUP(C77,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>n_update_cnt</v>
       </c>
       <c r="E77" t="str">
-        <f>VLOOKUP(C77,DD!$C$3:$I$200,5,FALSE)</f>
+        <f>VLOOKUP(C77,DD!$C$3:$I$203,5,FALSE)</f>
         <v xml:space="preserve">INTEGER </v>
       </c>
       <c r="F77">
-        <f>VLOOKUP(C77,DD!$C$3:$I$200,6,FALSE)</f>
-        <v>4</v>
+        <f>VLOOKUP(C77,DD!$C$3:$I$203,6,FALSE)</f>
+        <v>10</v>
       </c>
       <c r="G77" t="str">
-        <f>D77&amp;" "&amp;E77&amp;"("&amp;F77&amp;"), "</f>
-        <v xml:space="preserve">n_meigaraid INTEGER (4), </v>
-      </c>
-    </row>
-    <row r="78" spans="2:7">
-      <c r="C78" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" t="str">
-        <f>VLOOKUP(C78,DD!$C$3:$I$200,4,FALSE)</f>
-        <v>s_dataymd</v>
-      </c>
-      <c r="E78" t="str">
-        <f>VLOOKUP(C78,DD!$C$3:$I$200,5,FALSE)</f>
-        <v>varchar</v>
-      </c>
-      <c r="F78">
-        <f>VLOOKUP(C78,DD!$C$3:$I$200,6,FALSE)</f>
-        <v>8</v>
-      </c>
-      <c r="G78" t="str">
-        <f t="shared" ref="G78" si="9">D78&amp;" "&amp;E78&amp;"("&amp;F78&amp;"), "</f>
-        <v xml:space="preserve">s_dataymd varchar(8), </v>
-      </c>
-    </row>
-    <row r="79" spans="2:7">
-      <c r="C79" t="s">
-        <v>24</v>
-      </c>
-      <c r="D79" t="str">
-        <f>VLOOKUP(C79,DD!$C$3:$I$200,4,FALSE)</f>
-        <v>n_neugokikbn</v>
-      </c>
-      <c r="E79" t="str">
-        <f>VLOOKUP(C79,DD!$C$3:$I$200,5,FALSE)</f>
-        <v xml:space="preserve">INTEGER </v>
-      </c>
-      <c r="F79">
-        <f>VLOOKUP(C79,DD!$C$3:$I$200,6,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="G79" t="str">
-        <f t="shared" ref="G79:G82" si="10">D79&amp;" "&amp;E79&amp;"("&amp;F79&amp;"), "</f>
-        <v xml:space="preserve">n_neugokikbn INTEGER (2), </v>
-      </c>
-    </row>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">n_update_cnt INTEGER (10), </v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" s="15" customFormat="1"/>
     <row r="80" spans="2:7">
-      <c r="C80" t="s">
-        <v>50</v>
-      </c>
-      <c r="D80" t="str">
-        <f>VLOOKUP(C80,DD!$C$3:$I$200,4,FALSE)</f>
-        <v>d_one_neugoki_eikyousisuu_ruikei</v>
-      </c>
-      <c r="E80" t="str">
-        <f>VLOOKUP(C80,DD!$C$3:$I$200,5,FALSE)</f>
-        <v>double</v>
-      </c>
-      <c r="F80" t="str">
-        <f>VLOOKUP(C80,DD!$C$3:$I$200,6,FALSE)</f>
-        <v>20,3</v>
-      </c>
-      <c r="G80" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">d_one_neugoki_eikyousisuu_ruikei double(20,3), </v>
+      <c r="B80" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="E80" s="14" t="str">
+        <f>"create table "&amp;B80&amp;"("&amp;_xlfn.CONCAT(G82:G87)&amp;" PRIMARY KEY("&amp;E81&amp;"));"</f>
+        <v>create table t_meigaratubuyakisummary(n_meigaraid INTEGER (4), s_dataymd varchar(8), n_neugokikbn INTEGER (2), d_one_neugoki_eikyousisuu_ruikei double(20,3), d_all_neugoki_eikyousisuu_ruikei double(20,3), d_bunseki_kekka_tekiseido double(20,3),  PRIMARY KEY(n_meigaraid, s_dataymd));</v>
       </c>
     </row>
     <row r="81" spans="2:7">
-      <c r="C81" t="s">
-        <v>51</v>
-      </c>
-      <c r="D81" t="str">
-        <f>VLOOKUP(C81,DD!$C$3:$I$200,4,FALSE)</f>
-        <v>d_all_neugoki_eikyousisuu_ruikei</v>
-      </c>
-      <c r="E81" t="str">
-        <f>VLOOKUP(C81,DD!$C$3:$I$200,5,FALSE)</f>
-        <v>double</v>
-      </c>
-      <c r="F81" t="str">
-        <f>VLOOKUP(C81,DD!$C$3:$I$200,6,FALSE)</f>
-        <v>20,3</v>
-      </c>
-      <c r="G81" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">d_all_neugoki_eikyousisuu_ruikei double(20,3), </v>
+      <c r="E81" s="14" t="str">
+        <f>D82&amp;", "&amp;D83</f>
+        <v>n_meigaraid, s_dataymd</v>
       </c>
     </row>
     <row r="82" spans="2:7">
       <c r="C82" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D82" t="str">
-        <f>VLOOKUP(C82,DD!$C$3:$I$200,4,FALSE)</f>
-        <v>d_bunseki_kekka_tekiseido</v>
+        <f>VLOOKUP(C82,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>n_meigaraid</v>
       </c>
       <c r="E82" t="str">
-        <f>VLOOKUP(C82,DD!$C$3:$I$200,5,FALSE)</f>
+        <f>VLOOKUP(C82,DD!$C$3:$I$203,5,FALSE)</f>
+        <v xml:space="preserve">INTEGER </v>
+      </c>
+      <c r="F82">
+        <f>VLOOKUP(C82,DD!$C$3:$I$203,6,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="G82" t="str">
+        <f>D82&amp;" "&amp;E82&amp;"("&amp;F82&amp;"), "</f>
+        <v xml:space="preserve">n_meigaraid INTEGER (4), </v>
+      </c>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" t="str">
+        <f>VLOOKUP(C83,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>s_dataymd</v>
+      </c>
+      <c r="E83" t="str">
+        <f>VLOOKUP(C83,DD!$C$3:$I$203,5,FALSE)</f>
+        <v>varchar</v>
+      </c>
+      <c r="F83">
+        <f>VLOOKUP(C83,DD!$C$3:$I$203,6,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" ref="G83" si="11">D83&amp;" "&amp;E83&amp;"("&amp;F83&amp;"), "</f>
+        <v xml:space="preserve">s_dataymd varchar(8), </v>
+      </c>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="C84" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" t="str">
+        <f>VLOOKUP(C84,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>n_neugokikbn</v>
+      </c>
+      <c r="E84" t="str">
+        <f>VLOOKUP(C84,DD!$C$3:$I$203,5,FALSE)</f>
+        <v xml:space="preserve">INTEGER </v>
+      </c>
+      <c r="F84">
+        <f>VLOOKUP(C84,DD!$C$3:$I$203,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" ref="G84:G87" si="12">D84&amp;" "&amp;E84&amp;"("&amp;F84&amp;"), "</f>
+        <v xml:space="preserve">n_neugokikbn INTEGER (2), </v>
+      </c>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="C85" t="s">
+        <v>50</v>
+      </c>
+      <c r="D85" t="str">
+        <f>VLOOKUP(C85,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>d_one_neugoki_eikyousisuu_ruikei</v>
+      </c>
+      <c r="E85" t="str">
+        <f>VLOOKUP(C85,DD!$C$3:$I$203,5,FALSE)</f>
         <v>double</v>
       </c>
-      <c r="F82" t="str">
-        <f>VLOOKUP(C82,DD!$C$3:$I$200,6,FALSE)</f>
+      <c r="F85" t="str">
+        <f>VLOOKUP(C85,DD!$C$3:$I$203,6,FALSE)</f>
         <v>20,3</v>
       </c>
-      <c r="G82" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">d_bunseki_kekka_tekiseido double(20,3), </v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" s="15" customFormat="1"/>
-    <row r="85" spans="2:7">
-      <c r="B85" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="E85" s="14" t="str">
-        <f>"create table "&amp;B85&amp;"("&amp;_xlfn.CONCAT(G87:G91)&amp;");"</f>
-        <v>create table t_batchkekka(n_batch_kekka_dataid INTEGER  primary key AUTOINCREMENT, s_syoriymd varchar(8), s_kinou_id varchar(30), n_syori_kekka_kbn INTEGER (2), s_syori_comment varchar(100));</v>
+      <c r="G85" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d_one_neugoki_eikyousisuu_ruikei double(20,3), </v>
       </c>
     </row>
     <row r="86" spans="2:7">
-      <c r="E86" s="14"/>
+      <c r="C86" t="s">
+        <v>51</v>
+      </c>
+      <c r="D86" t="str">
+        <f>VLOOKUP(C86,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>d_all_neugoki_eikyousisuu_ruikei</v>
+      </c>
+      <c r="E86" t="str">
+        <f>VLOOKUP(C86,DD!$C$3:$I$203,5,FALSE)</f>
+        <v>double</v>
+      </c>
+      <c r="F86" t="str">
+        <f>VLOOKUP(C86,DD!$C$3:$I$203,6,FALSE)</f>
+        <v>20,3</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d_all_neugoki_eikyousisuu_ruikei double(20,3), </v>
+      </c>
     </row>
     <row r="87" spans="2:7">
       <c r="C87" t="s">
+        <v>52</v>
+      </c>
+      <c r="D87" t="str">
+        <f>VLOOKUP(C87,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>d_bunseki_kekka_tekiseido</v>
+      </c>
+      <c r="E87" t="str">
+        <f>VLOOKUP(C87,DD!$C$3:$I$203,5,FALSE)</f>
+        <v>double</v>
+      </c>
+      <c r="F87" t="str">
+        <f>VLOOKUP(C87,DD!$C$3:$I$203,6,FALSE)</f>
+        <v>20,3</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d_bunseki_kekka_tekiseido double(20,3), </v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" s="15" customFormat="1"/>
+    <row r="90" spans="2:7">
+      <c r="B90" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="E90" s="14" t="str">
+        <f>"create table "&amp;B90&amp;"("&amp;_xlfn.CONCAT(G92:G96)&amp;");"</f>
+        <v>create table t_batchkekka(n_batch_kekka_dataid INTEGER  primary key AUTOINCREMENT, s_syoriymd varchar(8), s_kinou_id varchar(30), n_syori_kekka_kbn INTEGER (2), s_syori_comment varchar(100));</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7">
+      <c r="E91" s="14"/>
+    </row>
+    <row r="92" spans="2:7">
+      <c r="C92" t="s">
+        <v>85</v>
+      </c>
+      <c r="D92" t="str">
+        <f>VLOOKUP(C92,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>n_batch_kekka_dataid</v>
+      </c>
+      <c r="E92" t="str">
+        <f>VLOOKUP(C92,DD!$C$3:$I$203,5,FALSE)</f>
+        <v xml:space="preserve">INTEGER </v>
+      </c>
+      <c r="F92">
+        <f>VLOOKUP(C92,DD!$C$3:$I$203,6,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="G92" t="str">
+        <f>D92&amp;" "&amp;E92&amp;" primary key AUTOINCREMENT, "</f>
+        <v xml:space="preserve">n_batch_kekka_dataid INTEGER  primary key AUTOINCREMENT, </v>
+      </c>
+    </row>
+    <row r="93" spans="2:7">
+      <c r="C93" t="s">
+        <v>91</v>
+      </c>
+      <c r="D93" t="str">
+        <f>VLOOKUP(C93,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>s_syoriymd</v>
+      </c>
+      <c r="E93" t="str">
+        <f>VLOOKUP(C93,DD!$C$3:$I$203,5,FALSE)</f>
+        <v>varchar</v>
+      </c>
+      <c r="F93">
+        <f>VLOOKUP(C93,DD!$C$3:$I$203,6,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="G93" t="str">
+        <f>D93&amp;" "&amp;E93&amp;"("&amp;F93&amp;"), "</f>
+        <v xml:space="preserve">s_syoriymd varchar(8), </v>
+      </c>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="C94" t="s">
         <v>86</v>
       </c>
-      <c r="D87" t="str">
-        <f>VLOOKUP(C87,DD!$C$3:$I$200,4,FALSE)</f>
-        <v>n_batch_kekka_dataid</v>
-      </c>
-      <c r="E87" t="str">
-        <f>VLOOKUP(C87,DD!$C$3:$I$200,5,FALSE)</f>
+      <c r="D94" t="str">
+        <f>VLOOKUP(C94,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>s_kinou_id</v>
+      </c>
+      <c r="E94" t="str">
+        <f>VLOOKUP(C94,DD!$C$3:$I$203,5,FALSE)</f>
+        <v>varchar</v>
+      </c>
+      <c r="F94">
+        <f>VLOOKUP(C94,DD!$C$3:$I$203,6,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" ref="G94" si="13">D94&amp;" "&amp;E94&amp;"("&amp;F94&amp;"), "</f>
+        <v xml:space="preserve">s_kinou_id varchar(30), </v>
+      </c>
+    </row>
+    <row r="95" spans="2:7">
+      <c r="C95" t="s">
+        <v>81</v>
+      </c>
+      <c r="D95" t="str">
+        <f>VLOOKUP(C95,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>n_syori_kekka_kbn</v>
+      </c>
+      <c r="E95" t="str">
+        <f>VLOOKUP(C95,DD!$C$3:$I$203,5,FALSE)</f>
         <v xml:space="preserve">INTEGER </v>
       </c>
-      <c r="F87">
-        <f>VLOOKUP(C87,DD!$C$3:$I$200,6,FALSE)</f>
-        <v>10</v>
-      </c>
-      <c r="G87" t="str">
-        <f>D87&amp;" "&amp;E87&amp;" primary key AUTOINCREMENT, "</f>
-        <v xml:space="preserve">n_batch_kekka_dataid INTEGER  primary key AUTOINCREMENT, </v>
-      </c>
-    </row>
-    <row r="88" spans="2:7">
-      <c r="C88" t="s">
-        <v>92</v>
-      </c>
-      <c r="D88" t="str">
-        <f>VLOOKUP(C88,DD!$C$3:$I$200,4,FALSE)</f>
-        <v>s_syoriymd</v>
-      </c>
-      <c r="E88" t="str">
-        <f>VLOOKUP(C88,DD!$C$3:$I$200,5,FALSE)</f>
+      <c r="F95">
+        <f>VLOOKUP(C95,DD!$C$3:$I$203,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" ref="G95" si="14">D95&amp;" "&amp;E95&amp;"("&amp;F95&amp;"), "</f>
+        <v xml:space="preserve">n_syori_kekka_kbn INTEGER (2), </v>
+      </c>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="C96" t="s">
+        <v>88</v>
+      </c>
+      <c r="D96" t="str">
+        <f>VLOOKUP(C96,DD!$C$3:$I$203,4,FALSE)</f>
+        <v>s_syori_comment</v>
+      </c>
+      <c r="E96" t="str">
+        <f>VLOOKUP(C96,DD!$C$3:$I$203,5,FALSE)</f>
         <v>varchar</v>
       </c>
-      <c r="F88">
-        <f>VLOOKUP(C88,DD!$C$3:$I$200,6,FALSE)</f>
-        <v>8</v>
-      </c>
-      <c r="G88" t="str">
-        <f>D88&amp;" "&amp;E88&amp;"("&amp;F88&amp;"), "</f>
-        <v xml:space="preserve">s_syoriymd varchar(8), </v>
-      </c>
-    </row>
-    <row r="89" spans="2:7">
-      <c r="C89" t="s">
-        <v>87</v>
-      </c>
-      <c r="D89" t="str">
-        <f>VLOOKUP(C89,DD!$C$3:$I$200,4,FALSE)</f>
-        <v>s_kinou_id</v>
-      </c>
-      <c r="E89" t="str">
-        <f>VLOOKUP(C89,DD!$C$3:$I$200,5,FALSE)</f>
-        <v>varchar</v>
-      </c>
-      <c r="F89">
-        <f>VLOOKUP(C89,DD!$C$3:$I$200,6,FALSE)</f>
-        <v>30</v>
-      </c>
-      <c r="G89" t="str">
-        <f t="shared" ref="G89" si="11">D89&amp;" "&amp;E89&amp;"("&amp;F89&amp;"), "</f>
-        <v xml:space="preserve">s_kinou_id varchar(30), </v>
-      </c>
-    </row>
-    <row r="90" spans="2:7">
-      <c r="C90" t="s">
-        <v>82</v>
-      </c>
-      <c r="D90" t="str">
-        <f>VLOOKUP(C90,DD!$C$3:$I$200,4,FALSE)</f>
-        <v>n_syori_kekka_kbn</v>
-      </c>
-      <c r="E90" t="str">
-        <f>VLOOKUP(C90,DD!$C$3:$I$200,5,FALSE)</f>
-        <v xml:space="preserve">INTEGER </v>
-      </c>
-      <c r="F90">
-        <f>VLOOKUP(C90,DD!$C$3:$I$200,6,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="G90" t="str">
-        <f t="shared" ref="G90" si="12">D90&amp;" "&amp;E90&amp;"("&amp;F90&amp;"), "</f>
-        <v xml:space="preserve">n_syori_kekka_kbn INTEGER (2), </v>
-      </c>
-    </row>
-    <row r="91" spans="2:7">
-      <c r="C91" t="s">
-        <v>89</v>
-      </c>
-      <c r="D91" t="str">
-        <f>VLOOKUP(C91,DD!$C$3:$I$200,4,FALSE)</f>
-        <v>s_syori_comment</v>
-      </c>
-      <c r="E91" t="str">
-        <f>VLOOKUP(C91,DD!$C$3:$I$200,5,FALSE)</f>
-        <v>varchar</v>
-      </c>
-      <c r="F91">
-        <f>VLOOKUP(C91,DD!$C$3:$I$200,6,FALSE)</f>
+      <c r="F96">
+        <f>VLOOKUP(C96,DD!$C$3:$I$203,6,FALSE)</f>
         <v>100</v>
       </c>
-      <c r="G91" t="str">
-        <f>D91&amp;" "&amp;E91&amp;"("&amp;F91&amp;")"</f>
+      <c r="G96" t="str">
+        <f>D96&amp;" "&amp;E96&amp;"("&amp;F96&amp;")"</f>
         <v>s_syori_comment varchar(100)</v>
       </c>
     </row>
@@ -6062,12 +4898,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F5FD6C-B3A0-4B89-9396-A9677E3BAA4F}">
-  <dimension ref="B2:I56"/>
+  <dimension ref="B2:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -6087,28 +4923,28 @@
   <sheetData>
     <row r="2" spans="2:9" ht="35.25">
       <c r="B2" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>130</v>
-      </c>
       <c r="I2" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -6119,10 +4955,10 @@
         <v>43</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F3" s="2" t="str" cm="1">
         <f t="array" ref="F3">_xlfn.SWITCH(D3,"D","d_","N","n_","V","s_")&amp;E3</f>
@@ -6133,7 +4969,7 @@
         <v>double</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I3" s="2"/>
     </row>
@@ -6145,10 +4981,10 @@
         <v>51</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F4" s="2" t="str" cm="1">
         <f t="array" ref="F4">_xlfn.SWITCH(D4,"D","d_","N","n_","V","s_")&amp;E4</f>
@@ -6159,7 +4995,7 @@
         <v>double</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -6168,13 +5004,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F5" s="2" t="str" cm="1">
         <f t="array" ref="F5">_xlfn.SWITCH(D5,"D","d_","N","n_","V","s_")&amp;E5</f>
@@ -6197,10 +5033,10 @@
         <v>52</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F6" s="2" t="str" cm="1">
         <f t="array" ref="F6">_xlfn.SWITCH(D6,"D","d_","N","n_","V","s_")&amp;E6</f>
@@ -6211,7 +5047,7 @@
         <v>double</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -6223,10 +5059,10 @@
         <v>27</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F7" s="2" t="str" cm="1">
         <f t="array" ref="F7">_xlfn.SWITCH(D7,"D","d_","N","n_","V","s_")&amp;E7</f>
@@ -6249,10 +5085,10 @@
         <v>9</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F8" s="2" t="str" cm="1">
         <f t="array" ref="F8">_xlfn.SWITCH(D8,"D","d_","N","n_","V","s_")&amp;E8</f>
@@ -6275,10 +5111,10 @@
         <v>14</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F9" s="2" t="str" cm="1">
         <f t="array" ref="F9">_xlfn.SWITCH(D9,"D","d_","N","n_","V","s_")&amp;E9</f>
@@ -6301,10 +5137,10 @@
         <v>40</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F10" s="2" t="str" cm="1">
         <f t="array" ref="F10">_xlfn.SWITCH(D10,"D","d_","N","n_","V","s_")&amp;E10</f>
@@ -6315,7 +5151,7 @@
         <v>double</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -6327,10 +5163,10 @@
         <v>46</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F11" s="2" t="str" cm="1">
         <f t="array" ref="F11">_xlfn.SWITCH(D11,"D","d_","N","n_","V","s_")&amp;E11</f>
@@ -6341,7 +5177,7 @@
         <v>double</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -6353,10 +5189,10 @@
         <v>41</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F12" s="2" t="str" cm="1">
         <f t="array" ref="F12">_xlfn.SWITCH(D12,"D","d_","N","n_","V","s_")&amp;E12</f>
@@ -6379,10 +5215,10 @@
         <v>17</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F13" s="2" t="str" cm="1">
         <f t="array" ref="F13">_xlfn.SWITCH(D13,"D","d_","N","n_","V","s_")&amp;E13</f>
@@ -6405,10 +5241,10 @@
         <v>30</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F14" s="2" t="str" cm="1">
         <f t="array" ref="F14">_xlfn.SWITCH(D14,"D","d_","N","n_","V","s_")&amp;E14</f>
@@ -6431,10 +5267,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F15" s="2" t="str" cm="1">
         <f t="array" ref="F15">_xlfn.SWITCH(D15,"D","d_","N","n_","V","s_")&amp;E15</f>
@@ -6445,7 +5281,7 @@
         <v>double</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I15" s="2"/>
     </row>
@@ -6454,173 +5290,173 @@
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>183</v>
+        <v>215</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>214</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="F16" s="2" t="str" cm="1">
         <f t="array" ref="F16">_xlfn.SWITCH(D16,"D","d_","N","n_","V","s_")&amp;E16</f>
-        <v>n_hinsikbn</v>
+        <v>s_hinsikbn_1</v>
       </c>
       <c r="G16" s="2" t="str" cm="1">
         <f t="array" ref="G16">_xlfn.SWITCH(D16,"D","double","N","INTEGER ","V","varchar")</f>
-        <v xml:space="preserve">INTEGER </v>
+        <v>varchar</v>
       </c>
       <c r="H16" s="13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>184</v>
+        <v>216</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>214</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>137</v>
+        <v>220</v>
       </c>
       <c r="F17" s="2" t="str" cm="1">
         <f t="array" ref="F17">_xlfn.SWITCH(D17,"D","d_","N","n_","V","s_")&amp;E17</f>
-        <v>s_kijinaiyou</v>
+        <v>s_hinsikbn_2</v>
       </c>
       <c r="G17" s="2" t="str" cm="1">
         <f t="array" ref="G17">_xlfn.SWITCH(D17,"D","double","N","INTEGER ","V","varchar")</f>
         <v>varchar</v>
       </c>
       <c r="H17" s="13">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>203</v>
+        <v>217</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>214</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="F18" s="2" t="str" cm="1">
         <f t="array" ref="F18">_xlfn.SWITCH(D18,"D","d_","N","n_","V","s_")&amp;E18</f>
-        <v>s_kinou_id</v>
+        <v>s_hinsikbn_3</v>
       </c>
       <c r="G18" s="2" t="str" cm="1">
         <f t="array" ref="G18">_xlfn.SWITCH(D18,"D","double","N","INTEGER ","V","varchar")</f>
         <v>varchar</v>
       </c>
       <c r="H18" s="13">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>183</v>
+        <v>218</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>214</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>141</v>
+        <v>222</v>
       </c>
       <c r="F19" s="2" t="str" cm="1">
         <f t="array" ref="F19">_xlfn.SWITCH(D19,"D","d_","N","n_","V","s_")&amp;E19</f>
-        <v>n_kousin_jyoukyou_kbn</v>
+        <v>s_hinsikbn_4</v>
       </c>
       <c r="G19" s="2" t="str" cm="1">
         <f t="array" ref="G19">_xlfn.SWITCH(D19,"D","double","N","INTEGER ","V","varchar")</f>
-        <v xml:space="preserve">INTEGER </v>
+        <v>varchar</v>
       </c>
       <c r="H19" s="13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="F20" s="2" t="str" cm="1">
         <f t="array" ref="F20">_xlfn.SWITCH(D20,"D","d_","N","n_","V","s_")&amp;E20</f>
-        <v>n_meigaraid</v>
+        <v>s_kijinaiyou</v>
       </c>
       <c r="G20" s="2" t="str" cm="1">
         <f t="array" ref="G20">_xlfn.SWITCH(D20,"D","double","N","INTEGER ","V","varchar")</f>
-        <v xml:space="preserve">INTEGER </v>
+        <v>varchar</v>
       </c>
       <c r="H20" s="13">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="F21" s="2" t="str" cm="1">
         <f t="array" ref="F21">_xlfn.SWITCH(D21,"D","d_","N","n_","V","s_")&amp;E21</f>
-        <v>s_meigaraname</v>
+        <v>s_kinou_id</v>
       </c>
       <c r="G21" s="2" t="str" cm="1">
         <f t="array" ref="G21">_xlfn.SWITCH(D21,"D","double","N","INTEGER ","V","varchar")</f>
         <v>varchar</v>
       </c>
       <c r="H21" s="13">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="F22" s="2" t="str" cm="1">
         <f t="array" ref="F22">_xlfn.SWITCH(D22,"D","d_","N","n_","V","s_")&amp;E22</f>
-        <v>n_neugokikbn</v>
+        <v>n_kousin_jyoukyou_kbn</v>
       </c>
       <c r="G22" s="2" t="str" cm="1">
         <f t="array" ref="G22">_xlfn.SWITCH(D22,"D","double","N","INTEGER ","V","varchar")</f>
@@ -6633,410 +5469,410 @@
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="2">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F23" s="2" t="str" cm="1">
         <f t="array" ref="F23">_xlfn.SWITCH(D23,"D","d_","N","n_","V","s_")&amp;E23</f>
-        <v>n_nikkei_saiyou_flg</v>
+        <v>n_meigaraid</v>
       </c>
       <c r="G23" s="2" t="str" cm="1">
         <f t="array" ref="G23">_xlfn.SWITCH(D23,"D","double","N","INTEGER ","V","varchar")</f>
         <v xml:space="preserve">INTEGER </v>
       </c>
       <c r="H23" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="2">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="F24" s="2" t="str" cm="1">
         <f t="array" ref="F24">_xlfn.SWITCH(D24,"D","d_","N","n_","V","s_")&amp;E24</f>
-        <v>d_one_neugoki_eikyousisuu</v>
+        <v>s_meigaraname</v>
       </c>
       <c r="G24" s="2" t="str" cm="1">
         <f t="array" ref="G24">_xlfn.SWITCH(D24,"D","double","N","INTEGER ","V","varchar")</f>
-        <v>double</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>185</v>
+        <v>varchar</v>
+      </c>
+      <c r="H24" s="13">
+        <v>100</v>
       </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="2">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="F25" s="2" t="str" cm="1">
         <f t="array" ref="F25">_xlfn.SWITCH(D25,"D","d_","N","n_","V","s_")&amp;E25</f>
-        <v>d_one_neugoki_eikyousisuu_ruikei</v>
+        <v>n_neugokikbn</v>
       </c>
       <c r="G25" s="2" t="str" cm="1">
         <f t="array" ref="G25">_xlfn.SWITCH(D25,"D","double","N","INTEGER ","V","varchar")</f>
-        <v>double</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>185</v>
+        <v xml:space="preserve">INTEGER </v>
+      </c>
+      <c r="H25" s="13">
+        <v>2</v>
       </c>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="2">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="F26" s="2" t="str" cm="1">
         <f t="array" ref="F26">_xlfn.SWITCH(D26,"D","d_","N","n_","V","s_")&amp;E26</f>
-        <v>d_owarine</v>
+        <v>n_nikkei_saiyou_flg</v>
       </c>
       <c r="G26" s="2" t="str" cm="1">
         <f t="array" ref="G26">_xlfn.SWITCH(D26,"D","double","N","INTEGER ","V","varchar")</f>
-        <v>double</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>186</v>
+        <v xml:space="preserve">INTEGER </v>
+      </c>
+      <c r="H26" s="13">
+        <v>1</v>
       </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="2">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="F27" s="2" t="str" cm="1">
         <f t="array" ref="F27">_xlfn.SWITCH(D27,"D","d_","N","n_","V","s_")&amp;E27</f>
-        <v>d_owarine_before_zoukagk</v>
+        <v>d_one_neugoki_eikyousisuu</v>
       </c>
       <c r="G27" s="2" t="str" cm="1">
         <f t="array" ref="G27">_xlfn.SWITCH(D27,"D","double","N","INTEGER ","V","varchar")</f>
         <v>double</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="2">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="F28" s="2" t="str" cm="1">
         <f t="array" ref="F28">_xlfn.SWITCH(D28,"D","d_","N","n_","V","s_")&amp;E28</f>
-        <v>d_owarine_before_zoukaritu</v>
+        <v>d_one_neugoki_eikyousisuu_ruikei</v>
       </c>
       <c r="G28" s="2" t="str" cm="1">
         <f t="array" ref="G28">_xlfn.SWITCH(D28,"D","double","N","INTEGER ","V","varchar")</f>
         <v>double</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="2">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F29" s="2" t="str" cm="1">
         <f t="array" ref="F29">_xlfn.SWITCH(D29,"D","d_","N","n_","V","s_")&amp;E29</f>
-        <v>n_pts_kbn</v>
+        <v>d_owarine</v>
       </c>
       <c r="G29" s="2" t="str" cm="1">
         <f t="array" ref="G29">_xlfn.SWITCH(D29,"D","double","N","INTEGER ","V","varchar")</f>
-        <v xml:space="preserve">INTEGER </v>
-      </c>
-      <c r="H29" s="13">
-        <v>2</v>
+        <v>double</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="2">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="F30" s="2" t="str" cm="1">
         <f t="array" ref="F30">_xlfn.SWITCH(D30,"D","d_","N","n_","V","s_")&amp;E30</f>
-        <v>n_pts_neugokikbn</v>
+        <v>d_owarine_before_zoukagk</v>
       </c>
       <c r="G30" s="2" t="str" cm="1">
         <f t="array" ref="G30">_xlfn.SWITCH(D30,"D","double","N","INTEGER ","V","varchar")</f>
-        <v xml:space="preserve">INTEGER </v>
-      </c>
-      <c r="H30" s="13">
-        <v>2</v>
+        <v>double</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="2">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F31" s="2" t="str" cm="1">
         <f t="array" ref="F31">_xlfn.SWITCH(D31,"D","d_","N","n_","V","s_")&amp;E31</f>
-        <v>d_pts_owarine_zoukagk</v>
+        <v>d_owarine_before_zoukaritu</v>
       </c>
       <c r="G31" s="2" t="str" cm="1">
         <f t="array" ref="G31">_xlfn.SWITCH(D31,"D","double","N","INTEGER ","V","varchar")</f>
         <v>double</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="2">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F32" s="2" t="str" cm="1">
         <f t="array" ref="F32">_xlfn.SWITCH(D32,"D","d_","N","n_","V","s_")&amp;E32</f>
-        <v>d_pts_owarine_zoukaritu</v>
+        <v>n_pts_kbn</v>
       </c>
       <c r="G32" s="2" t="str" cm="1">
         <f t="array" ref="G32">_xlfn.SWITCH(D32,"D","double","N","INTEGER ","V","varchar")</f>
-        <v>double</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>187</v>
+        <v xml:space="preserve">INTEGER </v>
+      </c>
+      <c r="H32" s="13">
+        <v>2</v>
       </c>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="2">
-        <v>31</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F33" s="2" t="str" cm="1">
+    <row r="33" spans="2:9" s="5" customFormat="1">
+      <c r="B33" s="4">
+        <v>28</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F33" s="4" t="str" cm="1">
         <f t="array" ref="F33">_xlfn.SWITCH(D33,"D","d_","N","n_","V","s_")&amp;E33</f>
-        <v>n_renban</v>
-      </c>
-      <c r="G33" s="2" t="str" cm="1">
+        <v>n_pts_neugokikbn</v>
+      </c>
+      <c r="G33" s="4" t="str" cm="1">
         <f t="array" ref="G33">_xlfn.SWITCH(D33,"D","double","N","INTEGER ","V","varchar")</f>
         <v xml:space="preserve">INTEGER </v>
       </c>
-      <c r="H33" s="13">
-        <v>5</v>
-      </c>
-      <c r="I33" s="2"/>
+      <c r="H33" s="4">
+        <v>2</v>
+      </c>
+      <c r="I33" s="4"/>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="F34" s="2" t="str" cm="1">
         <f t="array" ref="F34">_xlfn.SWITCH(D34,"D","d_","N","n_","V","s_")&amp;E34</f>
-        <v>s_rirekiymd</v>
+        <v>d_pts_owarine_zoukagk</v>
       </c>
       <c r="G34" s="2" t="str" cm="1">
         <f t="array" ref="G34">_xlfn.SWITCH(D34,"D","double","N","INTEGER ","V","varchar")</f>
-        <v>varchar</v>
-      </c>
-      <c r="H34" s="13">
-        <v>8</v>
+        <v>double</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="2">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F35" s="2" t="str" cm="1">
         <f t="array" ref="F35">_xlfn.SWITCH(D35,"D","d_","N","n_","V","s_")&amp;E35</f>
-        <v>n_sijyou_kbn</v>
+        <v>d_pts_owarine_zoukaritu</v>
       </c>
       <c r="G35" s="2" t="str" cm="1">
         <f t="array" ref="G35">_xlfn.SWITCH(D35,"D","double","N","INTEGER ","V","varchar")</f>
-        <v xml:space="preserve">INTEGER </v>
-      </c>
-      <c r="H35" s="13">
-        <v>2</v>
+        <v>double</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>184</v>
       </c>
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="2">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="F36" s="2" t="str" cm="1">
         <f t="array" ref="F36">_xlfn.SWITCH(D36,"D","d_","N","n_","V","s_")&amp;E36</f>
-        <v>n_stop_torihiki_kbn</v>
+        <v>n_renban</v>
       </c>
       <c r="G36" s="2" t="str" cm="1">
         <f t="array" ref="G36">_xlfn.SWITCH(D36,"D","double","N","INTEGER ","V","varchar")</f>
         <v xml:space="preserve">INTEGER </v>
       </c>
       <c r="H36" s="13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="2">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F37" s="2" t="str" cm="1">
         <f t="array" ref="F37">_xlfn.SWITCH(D37,"D","d_","N","n_","V","s_")&amp;E37</f>
-        <v>s_syori_comment</v>
+        <v>s_rirekiymd</v>
       </c>
       <c r="G37" s="2" t="str" cm="1">
         <f t="array" ref="G37">_xlfn.SWITCH(D37,"D","double","N","INTEGER ","V","varchar")</f>
         <v>varchar</v>
       </c>
       <c r="H37" s="13">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="2">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F38" s="2" t="str" cm="1">
         <f t="array" ref="F38">_xlfn.SWITCH(D38,"D","d_","N","n_","V","s_")&amp;E38</f>
-        <v>n_syori_kekka_kbn</v>
+        <v>n_sijyou_kbn</v>
       </c>
       <c r="G38" s="2" t="str" cm="1">
         <f t="array" ref="G38">_xlfn.SWITCH(D38,"D","double","N","INTEGER ","V","varchar")</f>
@@ -7049,391 +5885,509 @@
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="2">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="F39" s="2" t="str" cm="1">
         <f t="array" ref="F39">_xlfn.SWITCH(D39,"D","d_","N","n_","V","s_")&amp;E39</f>
-        <v>s_syoriymd</v>
+        <v>n_stop_torihiki_kbn</v>
       </c>
       <c r="G39" s="2" t="str" cm="1">
         <f t="array" ref="G39">_xlfn.SWITCH(D39,"D","double","N","INTEGER ","V","varchar")</f>
-        <v>varchar</v>
+        <v xml:space="preserve">INTEGER </v>
       </c>
       <c r="H39" s="13">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="2">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F40" s="2" t="str" cm="1">
         <f t="array" ref="F40">_xlfn.SWITCH(D40,"D","d_","N","n_","V","s_")&amp;E40</f>
-        <v>d_takane</v>
+        <v>s_syori_comment</v>
       </c>
       <c r="G40" s="2" t="str" cm="1">
         <f t="array" ref="G40">_xlfn.SWITCH(D40,"D","double","N","INTEGER ","V","varchar")</f>
-        <v>double</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>186</v>
+        <v>varchar</v>
+      </c>
+      <c r="H40" s="13">
+        <v>100</v>
       </c>
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F41" s="2" t="str" cm="1">
         <f t="array" ref="F41">_xlfn.SWITCH(D41,"D","d_","N","n_","V","s_")&amp;E41</f>
-        <v>n_tangen_kabusuu</v>
+        <v>n_syori_kekka_kbn</v>
       </c>
       <c r="G41" s="2" t="str" cm="1">
         <f t="array" ref="G41">_xlfn.SWITCH(D41,"D","double","N","INTEGER ","V","varchar")</f>
         <v xml:space="preserve">INTEGER </v>
       </c>
       <c r="H41" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F42" s="2" t="str" cm="1">
         <f t="array" ref="F42">_xlfn.SWITCH(D42,"D","d_","N","n_","V","s_")&amp;E42</f>
-        <v>s_tango</v>
+        <v>s_syoriymd</v>
       </c>
       <c r="G42" s="2" t="str" cm="1">
         <f t="array" ref="G42">_xlfn.SWITCH(D42,"D","double","N","INTEGER ","V","varchar")</f>
         <v>varchar</v>
       </c>
       <c r="H42" s="13">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F43" s="2" t="str" cm="1">
         <f t="array" ref="F43">_xlfn.SWITCH(D43,"D","d_","N","n_","V","s_")&amp;E43</f>
-        <v>n_tango_id</v>
+        <v>d_takane</v>
       </c>
       <c r="G43" s="2" t="str" cm="1">
         <f t="array" ref="G43">_xlfn.SWITCH(D43,"D","double","N","INTEGER ","V","varchar")</f>
-        <v xml:space="preserve">INTEGER </v>
-      </c>
-      <c r="H43" s="13">
-        <v>50</v>
+        <v>double</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>151</v>
       </c>
       <c r="F44" s="2" t="str" cm="1">
         <f t="array" ref="F44">_xlfn.SWITCH(D44,"D","d_","N","n_","V","s_")&amp;E44</f>
-        <v>s_title</v>
+        <v>n_tangen_kabusuu</v>
       </c>
       <c r="G44" s="2" t="str" cm="1">
         <f t="array" ref="G44">_xlfn.SWITCH(D44,"D","double","N","INTEGER ","V","varchar")</f>
-        <v>varchar</v>
+        <v xml:space="preserve">INTEGER </v>
       </c>
       <c r="H44" s="13">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F45" s="2" t="str" cm="1">
         <f t="array" ref="F45">_xlfn.SWITCH(D45,"D","d_","N","n_","V","s_")&amp;E45</f>
-        <v>s_tubuyaki</v>
+        <v>s_tango</v>
       </c>
       <c r="G45" s="2" t="str" cm="1">
         <f t="array" ref="G45">_xlfn.SWITCH(D45,"D","double","N","INTEGER ","V","varchar")</f>
         <v>varchar</v>
       </c>
       <c r="H45" s="13">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F46" s="2" t="str" cm="1">
         <f t="array" ref="F46">_xlfn.SWITCH(D46,"D","d_","N","n_","V","s_")&amp;E46</f>
-        <v>n_tubuyaki_id</v>
+        <v>n_tango_id</v>
       </c>
       <c r="G46" s="2" t="str" cm="1">
         <f t="array" ref="G46">_xlfn.SWITCH(D46,"D","double","N","INTEGER ","V","varchar")</f>
         <v xml:space="preserve">INTEGER </v>
       </c>
       <c r="H46" s="13">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" s="2">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="F47" s="2" t="str" cm="1">
         <f t="array" ref="F47">_xlfn.SWITCH(D47,"D","d_","N","n_","V","s_")&amp;E47</f>
-        <v>s_tubuyaki_nitiji</v>
+        <v>s_title</v>
       </c>
       <c r="G47" s="2" t="str" cm="1">
         <f t="array" ref="G47">_xlfn.SWITCH(D47,"D","double","N","INTEGER ","V","varchar")</f>
         <v>varchar</v>
       </c>
       <c r="H47" s="13">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="2">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>293</v>
+        <v>181</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="F48" s="2" t="str" cm="1">
         <f t="array" ref="F48">_xlfn.SWITCH(D48,"D","d_","N","n_","V","s_")&amp;E48</f>
-        <v>s_userid</v>
+        <v>s_tubuyaki</v>
       </c>
       <c r="G48" s="2" t="str" cm="1">
         <f t="array" ref="G48">_xlfn.SWITCH(D48,"D","double","N","INTEGER ","V","varchar")</f>
         <v>varchar</v>
       </c>
       <c r="H48" s="13">
-        <v>30</v>
+        <v>3000</v>
       </c>
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="2:9">
       <c r="B49" s="2">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="F49" s="2" t="str" cm="1">
         <f t="array" ref="F49">_xlfn.SWITCH(D49,"D","d_","N","n_","V","s_")&amp;E49</f>
-        <v>d_yasune</v>
+        <v>n_tubuyaki_id</v>
       </c>
       <c r="G49" s="2" t="str" cm="1">
         <f t="array" ref="G49">_xlfn.SWITCH(D49,"D","double","N","INTEGER ","V","varchar")</f>
-        <v>double</v>
-      </c>
-      <c r="H49" s="13" t="s">
-        <v>186</v>
+        <v xml:space="preserve">INTEGER </v>
+      </c>
+      <c r="H49" s="13">
+        <v>15</v>
       </c>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" s="2">
-        <v>48</v>
-      </c>
-      <c r="C50" t="s">
-        <v>204</v>
+        <v>45</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="F50" s="2" t="str" cm="1">
         <f t="array" ref="F50">_xlfn.SWITCH(D50,"D","d_","N","n_","V","s_")&amp;E50</f>
-        <v>n_yauzyou_cnt</v>
+        <v>s_tubuyaki_nitiji</v>
       </c>
       <c r="G50" s="2" t="str" cm="1">
         <f t="array" ref="G50">_xlfn.SWITCH(D50,"D","double","N","INTEGER ","V","varchar")</f>
-        <v xml:space="preserve">INTEGER </v>
-      </c>
-      <c r="H50" s="13" t="s">
-        <v>186</v>
+        <v>varchar</v>
+      </c>
+      <c r="H50" s="13">
+        <v>15</v>
       </c>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="2:9">
       <c r="B51" s="2">
-        <v>49</v>
-      </c>
-      <c r="C51" t="s">
-        <v>205</v>
+        <v>46</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="F51" s="2" t="str" cm="1">
         <f t="array" ref="F51">_xlfn.SWITCH(D51,"D","d_","N","n_","V","s_")&amp;E51</f>
-        <v>d_jikasougaku</v>
+        <v>s_userid</v>
       </c>
       <c r="G51" s="2" t="str" cm="1">
         <f t="array" ref="G51">_xlfn.SWITCH(D51,"D","double","N","INTEGER ","V","varchar")</f>
-        <v>double</v>
-      </c>
-      <c r="H51" s="13" t="s">
-        <v>210</v>
+        <v>varchar</v>
+      </c>
+      <c r="H51" s="13">
+        <v>30</v>
       </c>
       <c r="I51" s="2"/>
     </row>
     <row r="52" spans="2:9">
       <c r="B52" s="2">
-        <v>50</v>
-      </c>
-      <c r="C52" t="s">
-        <v>295</v>
+        <v>47</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="F52" s="18" t="str" cm="1">
+        <v>179</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F52" s="2" t="str" cm="1">
         <f t="array" ref="F52">_xlfn.SWITCH(D52,"D","d_","N","n_","V","s_")&amp;E52</f>
-        <v>s_tubuyakiurl</v>
+        <v>d_yasune</v>
       </c>
       <c r="G52" s="2" t="str" cm="1">
         <f t="array" ref="G52">_xlfn.SWITCH(D52,"D","double","N","INTEGER ","V","varchar")</f>
-        <v>varchar</v>
-      </c>
-      <c r="H52" s="13">
-        <v>500</v>
+        <v>double</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="2:9">
       <c r="B53" s="2">
-        <v>51</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C53" t="s">
+        <v>200</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F53" s="2" t="str" cm="1">
+        <f t="array" ref="F53">_xlfn.SWITCH(D53,"D","d_","N","n_","V","s_")&amp;E53</f>
+        <v>n_yauzyou_cnt</v>
+      </c>
+      <c r="G53" s="2" t="str" cm="1">
+        <f t="array" ref="G53">_xlfn.SWITCH(D53,"D","double","N","INTEGER ","V","varchar")</f>
+        <v xml:space="preserve">INTEGER </v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="I53" s="2"/>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" s="2">
-        <v>52</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C54" t="s">
+        <v>201</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F54" s="2" t="str" cm="1">
+        <f t="array" ref="F54">_xlfn.SWITCH(D54,"D","d_","N","n_","V","s_")&amp;E54</f>
+        <v>d_jikasougaku</v>
+      </c>
+      <c r="G54" s="2" t="str" cm="1">
+        <f t="array" ref="G54">_xlfn.SWITCH(D54,"D","double","N","INTEGER ","V","varchar")</f>
+        <v>double</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="I54" s="2"/>
     </row>
     <row r="55" spans="2:9">
       <c r="B55" s="2">
-        <v>53</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C55" t="s">
+        <v>210</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="F55" s="16" t="str" cm="1">
+        <f t="array" ref="F55">_xlfn.SWITCH(D55,"D","d_","N","n_","V","s_")&amp;E55</f>
+        <v>s_tubuyakiurl</v>
+      </c>
+      <c r="G55" s="2" t="str" cm="1">
+        <f t="array" ref="G55">_xlfn.SWITCH(D55,"D","double","N","INTEGER ","V","varchar")</f>
+        <v>varchar</v>
+      </c>
+      <c r="H55" s="13">
+        <v>500</v>
+      </c>
+      <c r="I55" s="2"/>
     </row>
     <row r="56" spans="2:9">
       <c r="B56" s="2">
+        <v>51</v>
+      </c>
+      <c r="C56" t="s">
+        <v>223</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F56" s="2" t="str" cm="1">
+        <f t="array" ref="F56">_xlfn.SWITCH(D56,"D","d_","N","n_","V","s_")&amp;E56</f>
+        <v>n_update_cnt</v>
+      </c>
+      <c r="G56" s="2" t="str" cm="1">
+        <f t="array" ref="G56">_xlfn.SWITCH(D56,"D","double","N","INTEGER ","V","varchar")</f>
+        <v xml:space="preserve">INTEGER </v>
+      </c>
+      <c r="H56" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="2">
+        <v>52</v>
+      </c>
+      <c r="C57" t="s">
+        <v>226</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F57" s="2" t="str" cm="1">
+        <f t="array" ref="F57">_xlfn.SWITCH(D57,"D","d_","N","n_","V","s_")&amp;E57</f>
+        <v>n_eikyou_musi_flg</v>
+      </c>
+      <c r="G57" s="2" t="str" cm="1">
+        <f t="array" ref="G57">_xlfn.SWITCH(D57,"D","double","N","INTEGER ","V","varchar")</f>
+        <v xml:space="preserve">INTEGER </v>
+      </c>
+      <c r="H57" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" s="2">
         <v>54</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:I49" xr:uid="{72D617C6-7850-4E74-B845-C89B3DD6942A}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:I49">
+  <autoFilter ref="B2:I52" xr:uid="{72D617C6-7850-4E74-B845-C89B3DD6942A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:I52">
       <sortCondition ref="E2"/>
     </sortState>
   </autoFilter>
@@ -7444,7 +6398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38AEB19-43A3-409D-B88A-AFE90B3F5D67}">
   <dimension ref="C2:L30"/>
   <sheetViews>
@@ -7456,105 +6410,105 @@
   <sheetData>
     <row r="2" spans="3:12">
       <c r="C2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="3:12">
       <c r="D3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="3:12">
       <c r="D5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="3:12">
       <c r="E6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="3:12">
       <c r="F7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="3:12">
       <c r="E9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="3:12">
       <c r="F10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="3:12">
       <c r="G11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="3:12">
       <c r="G12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="3:12">
       <c r="G13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="3:12">
       <c r="G14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="3:12">
       <c r="G15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="4:7">
       <c r="F17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="4:7">
       <c r="G18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="4:7">
       <c r="F21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="4:7">
       <c r="G22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="4:7">
       <c r="E25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="4:7">
       <c r="F26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="4:7">
       <c r="F27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="4:7">
       <c r="D30" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -7563,12 +6517,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8D097A-8060-4335-B73C-40CDC38B6D07}">
-  <dimension ref="B3:D23"/>
+  <dimension ref="B3:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -7580,13 +6534,13 @@
   <sheetData>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -7594,7 +6548,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -7605,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -7613,7 +6567,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -7621,7 +6575,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -7629,7 +6583,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -7637,7 +6591,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -7645,88 +6599,96 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="C15" s="7">
+        <v>2</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16">
+      <c r="C17">
         <v>0</v>
       </c>
-      <c r="D16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="C17">
-        <v>1</v>
-      </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="C19">
         <v>2</v>
       </c>
-      <c r="D18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20">
+      <c r="D19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21">
         <v>0</v>
       </c>
-      <c r="D20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="C21">
-        <v>1</v>
-      </c>
       <c r="D21" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="C24">
         <v>3</v>
       </c>
-      <c r="D23" t="s">
-        <v>107</v>
+      <c r="D24" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/documents/株予測システム.xlsx
+++ b/documents/株予測システム.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ume\git\kabukayosoku\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA0C0E6-8E37-4C41-B2C0-9DCCFDD66C0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE35000-6D79-4CCA-A67D-FFA83B651DA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRUD図" sheetId="1" r:id="rId1"/>
@@ -2589,7 +2589,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{737B94AA-C204-4FA0-AA44-339F90B1A936}">
   <dimension ref="B2:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
@@ -3401,8 +3403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2589ED1-E227-4CD4-A66B-9AD9B395DEB9}">
   <dimension ref="B1:G96"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E61" sqref="E60:E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -4057,7 +4059,7 @@
       </c>
       <c r="E42" s="14" t="str">
         <f>"create table "&amp;B42&amp;"("&amp;_xlfn.CONCAT(G44:G54)&amp;");"</f>
-        <v>create table t_tubuyaki(n_tubuyaki_id INTEGER  primary key AUTOINCREMENT, n_meigaraid INTEGER (4), s_userid varchar(30), s_tubuyaki_nitiji varchar(15), s_tubuyaki varchar(3000), s_tubuyakiurl varchar(500), n_followersuu INTEGER (15), n_neugokikbn INTEGER (2), d_one_neugoki_eikyousisuu double(20,3), d_all_neugoki_eikyousisuu double(20,3), n_kousin_jyoukyou_kbn INTEGER (2));</v>
+        <v>create table t_tubuyaki(n_tubuyaki_id INTEGER  primary key AUTOINCREMENT, n_meigaraid INTEGER (4), s_userid varchar(30), s_tubuyaki_nitiji varchar(19), s_tubuyaki varchar(3000), s_tubuyakiurl varchar(500), n_followersuu INTEGER (15), n_neugokikbn INTEGER (2), d_one_neugoki_eikyousisuu double(20,3), d_all_neugoki_eikyousisuu double(20,3), n_kousin_jyoukyou_kbn INTEGER (2));</v>
       </c>
     </row>
     <row r="44" spans="2:7">
@@ -4137,11 +4139,11 @@
       </c>
       <c r="F47">
         <f>VLOOKUP(C47,DD!$C$3:$I$203,6,FALSE)</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">s_tubuyaki_nitiji varchar(15), </v>
+        <v xml:space="preserve">s_tubuyaki_nitiji varchar(19), </v>
       </c>
     </row>
     <row r="48" spans="2:7">
@@ -4903,7 +4905,7 @@
   <dimension ref="B2:I59"/>
   <sheetViews>
     <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -6191,7 +6193,7 @@
         <v>varchar</v>
       </c>
       <c r="H50" s="13">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I50" s="2"/>
     </row>
